--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>基本使用</t>
   </si>
@@ -28,6 +28,18 @@
   </si>
   <si>
     <t>HashMap继承了Map接口，实现了Serializable等接口。</t>
+  </si>
+  <si>
+    <t>transient：transient型变量的值不包括在序列化的表示中</t>
+  </si>
+  <si>
+    <t>HashMap的数据是存在table数组中的，它是一个Entry数组，Entry是HashMap的一个静态内部类，看看它的定义。</t>
+  </si>
+  <si>
+    <t>Entry其实就是封装了key和value，也就是我们put方法参数的key和value会被封装成Entry，然后放到table这个Entry数组中</t>
+  </si>
+  <si>
+    <t>但值得注意的是，它有一个类型为Entry的next，它是用于指向下一个Entry的引用，所以table中存储的是Entry的单向链表。</t>
   </si>
 </sst>
 </file>
@@ -57,8 +69,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,27 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -109,43 +160,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,9 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -174,28 +208,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,49 +222,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -264,37 +354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,31 +372,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,55 +402,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,13 +416,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -419,6 +450,17 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -439,21 +481,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -464,21 +491,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -509,10 +521,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -521,133 +533,133 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -793,6 +805,48 @@
         <a:xfrm>
           <a:off x="685800" y="1371600"/>
           <a:ext cx="6000750" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3600450"/>
+          <a:ext cx="5895975" cy="4495800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1095,13 +1149,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="T56" sqref="T56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
   </cols>
@@ -1124,6 +1178,26 @@
     <row r="8" spans="2:2">
       <c r="B8" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615"/>
+    <workbookView windowWidth="28800" windowHeight="12615" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="HashMap" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="LinkedHashMap" sheetId="2" r:id="rId2"/>
+    <sheet name="TreeMap" sheetId="3" r:id="rId3"/>
+    <sheet name="HashTable" sheetId="4" r:id="rId4"/>
+    <sheet name="ArrayList" sheetId="5" r:id="rId5"/>
+    <sheet name="LinkedList" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
   <si>
     <t>基本使用</t>
   </si>
@@ -40,6 +43,493 @@
   </si>
   <si>
     <t>但值得注意的是，它有一个类型为Entry的next，它是用于指向下一个Entry的引用，所以table中存储的是Entry的单向链表。</t>
+  </si>
+  <si>
+    <t>构造方法</t>
+  </si>
+  <si>
+    <t>initialCapacity是HashMap的初始化容量(即初始化table时用到)，默认为16。</t>
+  </si>
+  <si>
+    <t>loadFactor为负载因子，默认为0.75。</t>
+  </si>
+  <si>
+    <t>threshold是HashMap进行扩容的阀值，当HashMap的存放的元素个数超过该值时，会进行扩容，它的值为HashMap的容量乘以负载因子。比如，HashMap的默认阀值为16*0.75，即12</t>
+  </si>
+  <si>
+    <t>PUT方法</t>
+  </si>
+  <si>
+    <t>对key为null的处理</t>
+  </si>
+  <si>
+    <t>根据key算出hash值</t>
+  </si>
+  <si>
+    <t>根据hash值和HashMap容量算出在table中应该存储的下标i</t>
+  </si>
+  <si>
+    <t>调用indexFor方法，去算出当前值在table数组的下标</t>
+  </si>
+  <si>
+    <r>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF61AEEE"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>indexFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> h, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> length) { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> h &amp; (length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>); }</t>
+    </r>
+  </si>
+  <si>
+    <t>这其实就是mod取余的一种替换方式</t>
+  </si>
+  <si>
+    <t>我们已经根据key得到hash值，然后根据hash值算出在table的存储下标了，接着就是这段for代码了</t>
+  </si>
+  <si>
+    <t>先判断hash值是否一样，如果一样，再判断key是否一样</t>
+  </si>
+  <si>
+    <t>首先取出table中下标为i的Entry，然后判断该Entry的hash值和key是否和要存储的hash值和key相同，如果相同，则表示要存储的key已经存在于HashMap，这时候只需要替换已存的Entry的value值即可。</t>
+  </si>
+  <si>
+    <t>如果不相同，则取e.next继续判断，其实就是遍历table中下标为i的Entry单向链表，找是否有相同的key已经在HashMap中，如果有，就替换value为最新的值，所以HashMap中只能存储唯一的key</t>
+  </si>
+  <si>
+    <t>扩容</t>
+  </si>
+  <si>
+    <t>如果当前HashMap中存储的元素个数达到扩容的阀值</t>
+  </si>
+  <si>
+    <t>扩容就通过内部的resize方法是先创建一个长度为原来2倍的新table，</t>
+  </si>
+  <si>
+    <t>然后通过遍历的方式，将老table的数据，重新计算hash并存储到新table的适当位置，</t>
+  </si>
+  <si>
+    <t>最后使用新的table，并重新计算HashMap的扩容阀值</t>
+  </si>
+  <si>
+    <t>get方法</t>
+  </si>
+  <si>
+    <t>remove方法</t>
+  </si>
+  <si>
+    <t>算出hash</t>
+  </si>
+  <si>
+    <t>得到在table中的index</t>
+  </si>
+  <si>
+    <t>当前结点的上一个结点，初始为table[index]上单向链表的头结点</t>
+  </si>
+  <si>
+    <t>循环链表</t>
+  </si>
+  <si>
+    <t>得到下一个结点</t>
+  </si>
+  <si>
+    <t>如果找到了删除的结点</t>
+  </si>
+  <si>
+    <t>如果是table上的单向链表的头结点，则直接让把该结点的next结点放到头结点</t>
+  </si>
+  <si>
+    <t>如果不是单向链表的头结点，则把上一个结点的next指向本结点的next</t>
+  </si>
+  <si>
+    <t>没有找到删除的结点，继续往下找</t>
+  </si>
+  <si>
+    <t>线程安全问题</t>
+  </si>
+  <si>
+    <t>1.在put的时候，因为该方法不是同步的，假如有两个线程A,B它们的put的key的hash值相同，不论是从头插入还是从尾插入，假如A获取了插入位置为x，但是还未插入，此时B也计算出待插入位置为x，则不论AB插入的先后顺序肯定有一个会丢失</t>
+  </si>
+  <si>
+    <t>2.在扩容的时候，jdk1.8之前是采用头插法，</t>
+  </si>
+  <si>
+    <t>当两个线程同时检测到hashmap需要扩容，在进行同时扩容的时候有可能会造成链表的循环，</t>
+  </si>
+  <si>
+    <t>主要原因就是，采用头插法，新链表与旧链表的顺序是反的，</t>
+  </si>
+  <si>
+    <t>在1.8后采用尾插法就不会出现这种问题，同时1.8的链表长度如果大于8就会转变成红黑树。</t>
+  </si>
+  <si>
+    <t>总结</t>
+  </si>
+  <si>
+    <t>HashMap是基于哈希表实现的，用Entry[]来存储数据，而Entry中封装了key、value、hash以及Entry类型的next</t>
+  </si>
+  <si>
+    <t>HashMap存储数据是无序的</t>
+  </si>
+  <si>
+    <t>hash冲突是通过拉链法解决的</t>
+  </si>
+  <si>
+    <t>HashMap的容量永远为2的幂次方，有利于哈希表的散列</t>
+  </si>
+  <si>
+    <t>HashMap不支持存储多个相同的key，且只保存一个key为null的值，多个会覆盖</t>
+  </si>
+  <si>
+    <t>put过程，是先通过key算出hash，然后用hash算出应该存储在table中的index，然后遍历table[index]，看是否有相同的key存在，存在，则更新value；不存在则插入到table[index]单向链表的表头，时间复杂度为O(n)</t>
+  </si>
+  <si>
+    <t>get过程，通过key算出hash，然后用hash算出应该存储在table中的index，然后遍历table[index]，然后比对key，找到相同的key，则取出其value，时间复杂度为O(n)</t>
+  </si>
+  <si>
+    <t>HashMap是线程不安全的，如果有线程安全需求，推荐使用ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>应用场景</t>
+  </si>
+  <si>
+    <t>HashMap是无序的，当我们希望有顺序地去存储key-value时，就需要使用LinkedHashMap了</t>
+  </si>
+  <si>
+    <t>简单使用</t>
+  </si>
+  <si>
+    <t>跟HashMap一样，它也是提供了key-value的存储方式，并提供了put和get方法来进行数据存取。</t>
+  </si>
+  <si>
+    <t>LinkedHashMap扩容时，数据的再散列和HashMap是不一样的</t>
+  </si>
+  <si>
+    <t>HashMap是先遍历旧table，再遍历旧table中每个元素的单向链表，取得Entry以后，重新计算hash值，然后存放到新table的对应位置。</t>
+  </si>
+  <si>
+    <t>LinkedHashMap是遍历的双向链表，取得每一个Entry，然后重新计算hash值，然后存放到新table的对应位置。</t>
+  </si>
+  <si>
+    <t>从遍历的效率来说，遍历双向链表的效率要高于遍历table，因为遍历双向链表是N次（N为元素个数）；而遍历table是N+table的空余个数（N为元素个数）</t>
+  </si>
+  <si>
+    <t>LinkedHashMap是继承于HashMap，是基于HashMap和双向链表来实现的</t>
+  </si>
+  <si>
+    <t>HashMap无序；LinkedHashMap有序，可分为插入顺序和访问顺序两种。如果是访问顺序，那put和get操作已存在的Entry时，都会把Entry移动到双向链表的表尾(其实是先删除再插入)</t>
+  </si>
+  <si>
+    <t>LinkedHashMap存取数据，还是跟HashMap一样使用的Entry[]的方式，双向链表只是为了保证顺序。</t>
+  </si>
+  <si>
+    <t>LinkedHashMap是线程不安全的</t>
+  </si>
+  <si>
+    <t>红黑树的规则</t>
+  </si>
+  <si>
+    <t>每个节点都只能是红色或者黑色</t>
+  </si>
+  <si>
+    <t>根节点是黑色</t>
+  </si>
+  <si>
+    <t>每个叶节点（NIL节点，空节点）是黑色的。</t>
+  </si>
+  <si>
+    <t>如果一个结点是红的，则它两个子节点都是黑的。也就是说在一条路径上不能出现相邻的两个红色结点。</t>
+  </si>
+  <si>
+    <t>红黑二叉树而言它主要包括三大基本操作</t>
+  </si>
+  <si>
+    <t>左旋. 右旋. 着色</t>
+  </si>
+  <si>
+    <t>特点</t>
+  </si>
+  <si>
+    <t>首先，Hashtable底层是通过数组加链表实现的，这点和JDK1.8之前的HashMap差不多。</t>
+  </si>
+  <si>
+    <t>其次，Hashtable是不允许key或者value为null的。</t>
+  </si>
+  <si>
+    <t>并且，Hashtable的计算索引方法，默认容量大小，扩容方法都与HashMap不太一样。</t>
+  </si>
+  <si>
+    <t>其实我们可以看到，Hashtable之所以线程安全，大部分方法都是使用了synchronized关键字，虽然JDK优化了synchronized，但在方法上使用该关键字，无疑仍旧是效率低下的操作。就这方面来说，ConcurrentHashMap无疑比Hashtable好多了</t>
+  </si>
+  <si>
+    <t>ArrayList底层使用的是数组，数组有自身的特点，不变性，一旦数组被初始化，那么其长度就固定了，不可被改变。这就导致了ArrayList中的一个重要特性：扩容。</t>
+  </si>
+  <si>
+    <t>分析之前我们先看一下ArrayList的两个构造方法</t>
+  </si>
+  <si>
+    <t>ArrayList()</t>
+  </si>
+  <si>
+    <t>ArrayList(int initialCapacity)</t>
+  </si>
+  <si>
+    <t>在无参构造中，我们看到了在用无参构造来创建对象的时候其实就是创建了一个空数组，长度为0</t>
+  </si>
+  <si>
+    <t>在有参构造中，传入的参数是正整数就按照传入的参数来确定创建数组的大小，否则异常</t>
+  </si>
+  <si>
+    <t>扩容的方法就是 add(E e)</t>
+  </si>
+  <si>
+    <t>其实add方法就两步，第一步：增加长度，第二步：添加元素到数组</t>
+  </si>
+  <si>
+    <t>获取到ArrayList中elementData数组的内存空间长度</t>
+  </si>
+  <si>
+    <t>扩容至原来的1.5倍</t>
+  </si>
+  <si>
+    <t>再判断一下新数组的容量够不够，够了就直接使用这个长度创建新数组，不够就将数组长度设置为需要的长度</t>
+  </si>
+  <si>
+    <t>若预设值大于默认的最大值检查是否溢出</t>
+  </si>
+  <si>
+    <t>调用Arrays.copyOf方法将elementData数组指向新的内存空间时newCapacity的连续空间,并将elementData的数据复制到新的内存空间</t>
+  </si>
+  <si>
+    <t>ArrayList底层采用数组实现，拥有快速随机访问能力，但是非线程安全的集合。</t>
+  </si>
+  <si>
+    <t>ArrayList默认容量为10，扩容规则为当要保存的新元素所需的容量不足时触发，基本规则为扩容1.5倍。</t>
+  </si>
+  <si>
+    <t>如果在遍历的时候发生结构性变化，会触发ConcurrentModificationException异常。</t>
+  </si>
+  <si>
+    <t>结构性变化包括：添加新元素，删除元素。</t>
+  </si>
+  <si>
+    <t>ArrayList支持序列化功能，支持克隆（浅拷贝）功能，排序功能等。</t>
+  </si>
+  <si>
+    <t>简介</t>
+  </si>
+  <si>
+    <t>LinkedList的底层是 Deque双向链表，实现了 Deque接口，而 Deque接口继承于 Queue接口，因此，在java中，如果要实现队列，一般都使用 LinkedList来实现。</t>
+  </si>
+  <si>
+    <t>Node结点</t>
+  </si>
+  <si>
+    <t>Node节点 一共有三个属性：item代表节点值，prev代表节点的前一个节点，next代表节点的后一个节点。</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <r>
+      <t>LInkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加操作时每个新添加的对象都会被放到新建的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Node</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象中，</t>
+    </r>
+  </si>
+  <si>
+    <t>Node对象中包含加入的对象和前后指针属性（pred和next，pred和next其实都是Node对象，直接存放的就是当前对象的前一个节点对象和后一个节点对象，最后一个及节点的next值为null），</t>
+  </si>
+  <si>
+    <t>然后将原来最后一个last节点的next指针指向新加入的对象，即可</t>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <t>LinkedList删除操作是通过将index位置上的前一个节点的next执行index位置的后一个节点，</t>
+  </si>
+  <si>
+    <t>同时将后一个节点的pred指向前一个节点，</t>
+  </si>
+  <si>
+    <t>然后将index位置上的Node节点对象属性都置空来实现的，置空后的Node对象会被GC垃圾回收期回收掉。</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>获取index位置上的节点对象</t>
+  </si>
+  <si>
+    <t>将新插入的元素直接赋给此位置上节点对象的item属性即可</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>返回该index位置上的节点对象的item属性，即该位置上的实际值</t>
+  </si>
+  <si>
+    <t>LinkedList和ArrayList的大致区别</t>
+  </si>
+  <si>
+    <t>1、ArrayList继承于 AbstractList， LinkedList继承于 AbstractSequentialList；</t>
+  </si>
+  <si>
+    <t>2、ArrayList基于数组， LinkedList基于双向链表，对于随机访问， ArrayList比较占优势，LinkedList插入、删除元素比较快，如果只要调整指针的指向那么时间复杂度是O(1),但是如果针对特定位置需要遍历时，时间复杂度是O(n)，也就是LinkedList在随机访问元素的话比较慢；</t>
+  </si>
+  <si>
+    <t>3、LinkedList没有实现自己的 Iterator，但是有 ListIterator和 DescendingIterator；</t>
+  </si>
+  <si>
+    <t>4、LinkedList需要更多的内存，因为 ArrayList的每个索引的位置是实际的数据，而 LinkedList中的每个节点中存储的是实际的数据和前后节点的位置；</t>
+  </si>
+  <si>
+    <t>5、ArrayList 和 LinkedList都是非同步的集合。</t>
+  </si>
+  <si>
+    <t>6、和ArrayList一样，LinkedList也是非线程安全的，只有在单线程下才可以使用。为了防止非同步访问，可以采用如下方式创建LinkedList：List list= Collections.synchronizedList(new LinkedList());</t>
+  </si>
+  <si>
+    <t>7、LinkedList基于双向链表实现，元素都可以为null。</t>
   </si>
 </sst>
 </file>
@@ -47,18 +537,43 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF393939"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -69,6 +584,109 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="9.75"/>
+      <color rgb="FFC678DD"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -77,22 +695,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -106,55 +711,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,14 +726,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -184,33 +734,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF61AEEE"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FFD19A66"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -222,187 +767,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,17 +961,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -448,8 +987,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -457,11 +998,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -505,11 +1044,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,10 +1066,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -533,142 +1078,160 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -847,6 +1410,216 @@
         <a:xfrm>
           <a:off x="685800" y="3600450"/>
           <a:ext cx="5895975" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="9601200"/>
+          <a:ext cx="5991225" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="16764000"/>
+          <a:ext cx="5638800" cy="4400550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="21431250"/>
+          <a:ext cx="5114925" cy="5934075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="29489400"/>
+          <a:ext cx="5448300" cy="5048250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>220</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8" r:link="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="37738050"/>
+          <a:ext cx="6591300" cy="3362960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1149,19 +1922,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="T56" sqref="T56"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="R240" sqref="R240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1171,7 +1944,7 @@
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1198,6 +1971,236 @@
     <row r="21" spans="2:2">
       <c r="B21" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="3:3">
+      <c r="C92" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="93" spans="3:3">
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="3:3">
+      <c r="C95" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="3:3">
+      <c r="C96" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="97" spans="3:3">
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1">
+      <c r="A204" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="205" spans="2:2">
+      <c r="B205" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="206" spans="2:2">
+      <c r="B206" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="207" spans="2:2">
+      <c r="B207" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="208" spans="2:2">
+      <c r="B208" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="209" spans="3:3">
+      <c r="C209" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="3:3">
+      <c r="C210" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="211" spans="3:3">
+      <c r="C211" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="212" spans="3:3">
+      <c r="C212" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="213" spans="3:3">
+      <c r="C213" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="216" spans="2:2">
+      <c r="B216" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="218" spans="3:3">
+      <c r="C218" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="219" spans="3:3">
+      <c r="C219" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="220" spans="3:3">
+      <c r="C220" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1">
+      <c r="A245" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2">
+      <c r="B247" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2">
+      <c r="B248" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2">
+      <c r="B249" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2">
+      <c r="B250" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2">
+      <c r="B251" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2">
+      <c r="B252" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1211,14 +2214,85 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1228,16 +2302,353 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="2:2">
+      <c r="B2" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="2:2">
+      <c r="B3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="2:2">
+      <c r="B4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="2:2">
+      <c r="B5" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12615" activeTab="5"/>
+    <workbookView windowWidth="19935" windowHeight="7935"/>
   </bookViews>
   <sheets>
     <sheet name="HashMap" sheetId="1" r:id="rId1"/>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
       <t>static</t>
     </r>
     <r>
@@ -444,6 +450,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>LInkedList</t>
     </r>
     <r>
@@ -537,10 +549,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -598,7 +610,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,121 +746,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF393939"/>
       <name val="宋体"/>
@@ -767,187 +779,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,6 +978,24 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,15 +1022,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,15 +1056,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1063,148 +1075,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1924,8 +1936,8 @@
   <sheetPr/>
   <dimension ref="A1:C253"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="R240" sqref="R240"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -2516,8 +2528,8 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -4,421 +4,482 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7935"/>
+    <workbookView windowWidth="19935" windowHeight="7935" tabRatio="799"/>
   </bookViews>
   <sheets>
-    <sheet name="HashMap" sheetId="1" r:id="rId1"/>
-    <sheet name="LinkedHashMap" sheetId="2" r:id="rId2"/>
-    <sheet name="TreeMap" sheetId="3" r:id="rId3"/>
-    <sheet name="HashTable" sheetId="4" r:id="rId4"/>
-    <sheet name="ArrayList" sheetId="5" r:id="rId5"/>
-    <sheet name="LinkedList" sheetId="6" r:id="rId6"/>
+    <sheet name="ArrayList" sheetId="5" r:id="rId1"/>
+    <sheet name="LinkedList" sheetId="6" r:id="rId2"/>
+    <sheet name="HashMap" sheetId="1" r:id="rId3"/>
+    <sheet name="LinkedHashMap" sheetId="2" r:id="rId4"/>
+    <sheet name="HashTable" sheetId="4" r:id="rId5"/>
+    <sheet name="TreeMap" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="121">
-  <si>
-    <t>基本使用</t>
-  </si>
-  <si>
-    <t>HashMap很方便地为我们提供了key-value的形式存取数据，使用put方法存数据，get方法取数据。</t>
-  </si>
-  <si>
-    <t>定义</t>
-  </si>
-  <si>
-    <t>HashMap继承了Map接口，实现了Serializable等接口。</t>
-  </si>
-  <si>
-    <t>transient：transient型变量的值不包括在序列化的表示中</t>
-  </si>
-  <si>
-    <t>HashMap的数据是存在table数组中的，它是一个Entry数组，Entry是HashMap的一个静态内部类，看看它的定义。</t>
-  </si>
-  <si>
-    <t>Entry其实就是封装了key和value，也就是我们put方法参数的key和value会被封装成Entry，然后放到table这个Entry数组中</t>
-  </si>
-  <si>
-    <t>但值得注意的是，它有一个类型为Entry的next，它是用于指向下一个Entry的引用，所以table中存储的是Entry的单向链表。</t>
-  </si>
-  <si>
-    <t>构造方法</t>
-  </si>
-  <si>
-    <t>initialCapacity是HashMap的初始化容量(即初始化table时用到)，默认为16。</t>
-  </si>
-  <si>
-    <t>loadFactor为负载因子，默认为0.75。</t>
-  </si>
-  <si>
-    <t>threshold是HashMap进行扩容的阀值，当HashMap的存放的元素个数超过该值时，会进行扩容，它的值为HashMap的容量乘以负载因子。比如，HashMap的默认阀值为16*0.75，即12</t>
-  </si>
-  <si>
-    <t>PUT方法</t>
-  </si>
-  <si>
-    <t>对key为null的处理</t>
-  </si>
-  <si>
-    <t>根据key算出hash值</t>
-  </si>
-  <si>
-    <t>根据hash值和HashMap容量算出在table中应该存储的下标i</t>
-  </si>
-  <si>
-    <t>调用indexFor方法，去算出当前值在table数组的下标</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="179">
+  <si>
+    <t>clone()方法</t>
+  </si>
+  <si>
+    <t>用来克隆出一个新数组。</t>
+  </si>
+  <si>
+    <t>通过调用Object的clone()方法来得到一个新的ArrayList对象，然后将elementData复制给该对象并返回。</t>
+  </si>
+  <si>
+    <t>add(E e)方法</t>
+  </si>
+  <si>
+    <t>在数组末尾添加元素</t>
+  </si>
+  <si>
+    <t>计算容量：如果elementData是空，则返回默认容量10和size+1的最大值，否则返回size+1</t>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>static</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>int</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF61AEEE"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>indexFor</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFA31515"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>calculateCapacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Object[] elementData, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> minCapacity) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> (elementData == DEFAULTCAPACITY_EMPTY_ELEMENTDATA) {</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> Math.max(DEFAULT_CAPACITY, minCapacity);</t>
+    </r>
+  </si>
+  <si>
+    <t>    }</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> minCapacity;</t>
+    </r>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>计算完容量后，进行确保容量可用：(modCount不用理它，它用来计算修改次数)</t>
+  </si>
+  <si>
+    <r>
+      <t>如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>size+1 &gt; elementData.length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证明数组已经放满，则增加容量，调用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>grow()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFA31515"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ensureExplicitCapacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>int</t>
     </r>
     <r>
       <rPr>
         <sz val="9.75"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> h, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> length) { </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFC678DD"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>return</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> h &amp; (length</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFD19A66"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFABB2BF"/>
-        <rFont val="Courier New"/>
-        <charset val="134"/>
-      </rPr>
-      <t>); }</t>
-    </r>
-  </si>
-  <si>
-    <t>这其实就是mod取余的一种替换方式</t>
-  </si>
-  <si>
-    <t>我们已经根据key得到hash值，然后根据hash值算出在table的存储下标了，接着就是这段for代码了</t>
-  </si>
-  <si>
-    <t>先判断hash值是否一样，如果一样，再判断key是否一样</t>
-  </si>
-  <si>
-    <t>首先取出table中下标为i的Entry，然后判断该Entry的hash值和key是否和要存储的hash值和key相同，如果相同，则表示要存储的key已经存在于HashMap，这时候只需要替换已存的Entry的value值即可。</t>
-  </si>
-  <si>
-    <t>如果不相同，则取e.next继续判断，其实就是遍历table中下标为i的Entry单向链表，找是否有相同的key已经在HashMap中，如果有，就替换value为最新的值，所以HashMap中只能存储唯一的key</t>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> minCapacity) {</t>
+    </r>
+  </si>
+  <si>
+    <t>    modCount++;</t>
+  </si>
+  <si>
+    <r>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// overflow-conscious code</t>
+    </r>
+  </si>
+  <si>
+    <t>    if (minCapacity - elementData.length &gt; 0)</t>
+  </si>
+  <si>
+    <t>        grow(minCapacity);</t>
+  </si>
+  <si>
+    <t>增加容量：默认1.5倍扩容。</t>
+  </si>
+  <si>
+    <t>获取当前数组长度=&gt;oldCapacity</t>
+  </si>
+  <si>
+    <t>oldCapacity&gt;&gt;1 表示将oldCapacity右移一位(位运算)，相当于除2。再加上1，相当于新容量扩容1.5倍。</t>
+  </si>
+  <si>
+    <r>
+      <t>如果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>newCapacity&lt;mincapacity`，则`newcapacity mincapacity="size+1=2" elementdata="1" newcapacity="1+1"""&gt;&amp;gt;1=1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1&amp;lt;2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>所以如果不处理该情况，扩容将不能正确完成。</t>
+    </r>
+  </si>
+  <si>
+    <t>如果新容量比最大值还要大，则将新容量赋值为VM要求最大值。</t>
+  </si>
+  <si>
+    <t>将elementData拷贝到一个新的容量中。</t>
+  </si>
+  <si>
+    <t>ArrayList优缺点</t>
+  </si>
+  <si>
+    <t>优点：</t>
+  </si>
+  <si>
+    <t>因为其底层是数组，所以修改和查询效率高。</t>
+  </si>
+  <si>
+    <t>可自动扩容(1.5倍)。</t>
+  </si>
+  <si>
+    <t>缺点：</t>
+  </si>
+  <si>
+    <t>插入和删除效率不高。</t>
+  </si>
+  <si>
+    <t>线程不安全。</t>
   </si>
   <si>
     <t>扩容</t>
   </si>
   <si>
-    <t>如果当前HashMap中存储的元素个数达到扩容的阀值</t>
-  </si>
-  <si>
-    <t>扩容就通过内部的resize方法是先创建一个长度为原来2倍的新table，</t>
-  </si>
-  <si>
-    <t>然后通过遍历的方式，将老table的数据，重新计算hash并存储到新table的适当位置，</t>
-  </si>
-  <si>
-    <t>最后使用新的table，并重新计算HashMap的扩容阀值</t>
-  </si>
-  <si>
-    <t>get方法</t>
-  </si>
-  <si>
-    <t>remove方法</t>
-  </si>
-  <si>
-    <t>算出hash</t>
-  </si>
-  <si>
-    <t>得到在table中的index</t>
-  </si>
-  <si>
-    <t>当前结点的上一个结点，初始为table[index]上单向链表的头结点</t>
-  </si>
-  <si>
-    <t>循环链表</t>
-  </si>
-  <si>
-    <t>得到下一个结点</t>
-  </si>
-  <si>
-    <t>如果找到了删除的结点</t>
-  </si>
-  <si>
-    <t>如果是table上的单向链表的头结点，则直接让把该结点的next结点放到头结点</t>
-  </si>
-  <si>
-    <t>如果不是单向链表的头结点，则把上一个结点的next指向本结点的next</t>
-  </si>
-  <si>
-    <t>没有找到删除的结点，继续往下找</t>
-  </si>
-  <si>
-    <t>线程安全问题</t>
-  </si>
-  <si>
-    <t>1.在put的时候，因为该方法不是同步的，假如有两个线程A,B它们的put的key的hash值相同，不论是从头插入还是从尾插入，假如A获取了插入位置为x，但是还未插入，此时B也计算出待插入位置为x，则不论AB插入的先后顺序肯定有一个会丢失</t>
-  </si>
-  <si>
-    <t>2.在扩容的时候，jdk1.8之前是采用头插法，</t>
-  </si>
-  <si>
-    <t>当两个线程同时检测到hashmap需要扩容，在进行同时扩容的时候有可能会造成链表的循环，</t>
-  </si>
-  <si>
-    <t>主要原因就是，采用头插法，新链表与旧链表的顺序是反的，</t>
-  </si>
-  <si>
-    <t>在1.8后采用尾插法就不会出现这种问题，同时1.8的链表长度如果大于8就会转变成红黑树。</t>
+    <t>ArrayList底层使用的是数组，数组有自身的特点，不变性，一旦数组被初始化，那么其长度就固定了，不可被改变。这就导致了ArrayList中的一个重要特性：扩容。</t>
+  </si>
+  <si>
+    <t>分析之前我们先看一下ArrayList的两个构造方法</t>
+  </si>
+  <si>
+    <t>ArrayList()</t>
+  </si>
+  <si>
+    <t>ArrayList(int initialCapacity)</t>
+  </si>
+  <si>
+    <t>在无参构造中，我们看到了在用无参构造来创建对象的时候其实就是创建了一个空数组，长度为0</t>
+  </si>
+  <si>
+    <t>在有参构造中，传入的参数是正整数就按照传入的参数来确定创建数组的大小，否则异常</t>
+  </si>
+  <si>
+    <t>扩容的方法就是 add(E e)</t>
+  </si>
+  <si>
+    <t>其实add方法就两步，第一步：增加长度，第二步：添加元素到数组</t>
+  </si>
+  <si>
+    <t>获取到ArrayList中elementData数组的内存空间长度</t>
+  </si>
+  <si>
+    <t>扩容至原来的1.5倍</t>
+  </si>
+  <si>
+    <t>再判断一下新数组的容量够不够，够了就直接使用这个长度创建新数组，不够就将数组长度设置为需要的长度</t>
+  </si>
+  <si>
+    <t>若预设值大于默认的最大值检查是否溢出</t>
+  </si>
+  <si>
+    <t>调用Arrays.copyOf方法将elementData数组指向新的内存空间时newCapacity的连续空间,并将elementData的数据复制到新的内存空间</t>
   </si>
   <si>
     <t>总结</t>
   </si>
   <si>
-    <t>HashMap是基于哈希表实现的，用Entry[]来存储数据，而Entry中封装了key、value、hash以及Entry类型的next</t>
-  </si>
-  <si>
-    <t>HashMap存储数据是无序的</t>
-  </si>
-  <si>
-    <t>hash冲突是通过拉链法解决的</t>
-  </si>
-  <si>
-    <t>HashMap的容量永远为2的幂次方，有利于哈希表的散列</t>
-  </si>
-  <si>
-    <t>HashMap不支持存储多个相同的key，且只保存一个key为null的值，多个会覆盖</t>
-  </si>
-  <si>
-    <t>put过程，是先通过key算出hash，然后用hash算出应该存储在table中的index，然后遍历table[index]，看是否有相同的key存在，存在，则更新value；不存在则插入到table[index]单向链表的表头，时间复杂度为O(n)</t>
-  </si>
-  <si>
-    <t>get过程，通过key算出hash，然后用hash算出应该存储在table中的index，然后遍历table[index]，然后比对key，找到相同的key，则取出其value，时间复杂度为O(n)</t>
-  </si>
-  <si>
-    <t>HashMap是线程不安全的，如果有线程安全需求，推荐使用ConcurrentHashMap</t>
-  </si>
-  <si>
-    <t>应用场景</t>
-  </si>
-  <si>
-    <t>HashMap是无序的，当我们希望有顺序地去存储key-value时，就需要使用LinkedHashMap了</t>
-  </si>
-  <si>
-    <t>简单使用</t>
-  </si>
-  <si>
-    <t>跟HashMap一样，它也是提供了key-value的存储方式，并提供了put和get方法来进行数据存取。</t>
-  </si>
-  <si>
-    <t>LinkedHashMap扩容时，数据的再散列和HashMap是不一样的</t>
-  </si>
-  <si>
-    <t>HashMap是先遍历旧table，再遍历旧table中每个元素的单向链表，取得Entry以后，重新计算hash值，然后存放到新table的对应位置。</t>
-  </si>
-  <si>
-    <t>LinkedHashMap是遍历的双向链表，取得每一个Entry，然后重新计算hash值，然后存放到新table的对应位置。</t>
-  </si>
-  <si>
-    <t>从遍历的效率来说，遍历双向链表的效率要高于遍历table，因为遍历双向链表是N次（N为元素个数）；而遍历table是N+table的空余个数（N为元素个数）</t>
-  </si>
-  <si>
-    <t>LinkedHashMap是继承于HashMap，是基于HashMap和双向链表来实现的</t>
-  </si>
-  <si>
-    <t>HashMap无序；LinkedHashMap有序，可分为插入顺序和访问顺序两种。如果是访问顺序，那put和get操作已存在的Entry时，都会把Entry移动到双向链表的表尾(其实是先删除再插入)</t>
-  </si>
-  <si>
-    <t>LinkedHashMap存取数据，还是跟HashMap一样使用的Entry[]的方式，双向链表只是为了保证顺序。</t>
-  </si>
-  <si>
-    <t>LinkedHashMap是线程不安全的</t>
-  </si>
-  <si>
-    <t>红黑树的规则</t>
-  </si>
-  <si>
-    <t>每个节点都只能是红色或者黑色</t>
-  </si>
-  <si>
-    <t>根节点是黑色</t>
-  </si>
-  <si>
-    <t>每个叶节点（NIL节点，空节点）是黑色的。</t>
-  </si>
-  <si>
-    <t>如果一个结点是红的，则它两个子节点都是黑的。也就是说在一条路径上不能出现相邻的两个红色结点。</t>
-  </si>
-  <si>
-    <t>红黑二叉树而言它主要包括三大基本操作</t>
-  </si>
-  <si>
-    <t>左旋. 右旋. 着色</t>
-  </si>
-  <si>
-    <t>特点</t>
-  </si>
-  <si>
-    <t>首先，Hashtable底层是通过数组加链表实现的，这点和JDK1.8之前的HashMap差不多。</t>
-  </si>
-  <si>
-    <t>其次，Hashtable是不允许key或者value为null的。</t>
-  </si>
-  <si>
-    <t>并且，Hashtable的计算索引方法，默认容量大小，扩容方法都与HashMap不太一样。</t>
-  </si>
-  <si>
-    <t>其实我们可以看到，Hashtable之所以线程安全，大部分方法都是使用了synchronized关键字，虽然JDK优化了synchronized，但在方法上使用该关键字，无疑仍旧是效率低下的操作。就这方面来说，ConcurrentHashMap无疑比Hashtable好多了</t>
-  </si>
-  <si>
-    <t>ArrayList底层使用的是数组，数组有自身的特点，不变性，一旦数组被初始化，那么其长度就固定了，不可被改变。这就导致了ArrayList中的一个重要特性：扩容。</t>
-  </si>
-  <si>
-    <t>分析之前我们先看一下ArrayList的两个构造方法</t>
-  </si>
-  <si>
-    <t>ArrayList()</t>
-  </si>
-  <si>
-    <t>ArrayList(int initialCapacity)</t>
-  </si>
-  <si>
-    <t>在无参构造中，我们看到了在用无参构造来创建对象的时候其实就是创建了一个空数组，长度为0</t>
-  </si>
-  <si>
-    <t>在有参构造中，传入的参数是正整数就按照传入的参数来确定创建数组的大小，否则异常</t>
-  </si>
-  <si>
-    <t>扩容的方法就是 add(E e)</t>
-  </si>
-  <si>
-    <t>其实add方法就两步，第一步：增加长度，第二步：添加元素到数组</t>
-  </si>
-  <si>
-    <t>获取到ArrayList中elementData数组的内存空间长度</t>
-  </si>
-  <si>
-    <t>扩容至原来的1.5倍</t>
-  </si>
-  <si>
-    <t>再判断一下新数组的容量够不够，够了就直接使用这个长度创建新数组，不够就将数组长度设置为需要的长度</t>
-  </si>
-  <si>
-    <t>若预设值大于默认的最大值检查是否溢出</t>
-  </si>
-  <si>
-    <t>调用Arrays.copyOf方法将elementData数组指向新的内存空间时newCapacity的连续空间,并将elementData的数据复制到新的内存空间</t>
-  </si>
-  <si>
     <t>ArrayList底层采用数组实现，拥有快速随机访问能力，但是非线程安全的集合。</t>
   </si>
   <si>
@@ -432,6 +493,84 @@
   </si>
   <si>
     <t>ArrayList支持序列化功能，支持克隆（浅拷贝）功能，排序功能等。</t>
+  </si>
+  <si>
+    <t>ArrayList和LinkedList区别</t>
+  </si>
+  <si>
+    <t>什么情况下你会使用ArrayList？什么时候你会选择LinkedList？</t>
+  </si>
+  <si>
+    <t>当你遇到访问元素比插入或者是删除元素更加频繁的时候，你应该使用ArrayList</t>
+  </si>
+  <si>
+    <t>当你在某个特别的索引中，插入或者是删除元素更加频繁，或者你压根就不需要访问元素的时候，你会选择LinkedList</t>
+  </si>
+  <si>
+    <t>这里的主要原因是，在ArrayList中访问元素的最糟糕的时间复杂度是”1″，而在LinkedList中可能就是”n”了。在ArrayList中增加或者删除某个元素，通常会调用System.arraycopy方法，这是一种极为消耗资源的操作，因此，在频繁的插入或者是删除元素的情况下，LinkedList的性能会更加好一点</t>
+  </si>
+  <si>
+    <t>当传递ArrayList到某个方法中，或者某个方法返回ArrayList，什么时候要考虑安全隐患？如何修复安全违规这个问题呢？</t>
+  </si>
+  <si>
+    <t>使用clone()方法，比如ArrayList newArray = oldArray.clone();</t>
+  </si>
+  <si>
+    <t>使用ArrayList构造方法，比如：ArrayList myObject = new ArrayList(myTempObject);</t>
+  </si>
+  <si>
+    <t>使用Collection的copy方法。Collections.copy(aa,bb);</t>
+  </si>
+  <si>
+    <t>在索引中ArrayList的增加或者删除某个对象的运行过程？效率很低吗？解释一下为什么？</t>
+  </si>
+  <si>
+    <t>在ArrayList中增加或者是删除元素，要调用System.arraycopy这种效率很低的操作，如果遇到了需要频繁插入或者是删除的时候，你可以选择其他的Java集合，比如LinkedList。</t>
+  </si>
+  <si>
+    <t>线程安全性</t>
+  </si>
+  <si>
+    <t>对ArrayList的操作一般分为两个步骤，改变位置(size)和操作元素(e)。所以这个过程在多线程的环境下是不能保证具有原子性的，因此ArrayList在多线程的环境下是线程不安全的。</t>
+  </si>
+  <si>
+    <t>序列化</t>
+  </si>
+  <si>
+    <t>将对象转换成以字节序列的形式来表示，以便用于持久化和传输。</t>
+  </si>
+  <si>
+    <t>实现方法：实现Serializable接口。</t>
+  </si>
+  <si>
+    <t>transient关键字解析</t>
+  </si>
+  <si>
+    <t>Java中transient关键字的作用，简单地说，就是让某些被修饰的成员属性变量不被序列化。</t>
+  </si>
+  <si>
+    <t>插入和删除是否受元素位置的影响：</t>
+  </si>
+  <si>
+    <t>① ArrayList 采用数组存储，所以插入和删除元素的时间复杂度受元素位置的影响。</t>
+  </si>
+  <si>
+    <t>比如：执行add(E e)方法的时候， ArrayList 会默认在将指定的元素追加到此列表的末尾，这种情况时间复杂度就是O(1)。但是如果要在指定位置 i 插入和删除元素的话（add(int index, E element)）时间复杂度就为 O(n-i)。因为在进行上述操作的时候集合中第 i 和第 i 个元素之后的(n-i)个元素都要执行向后位/向前移一位的操作。</t>
+  </si>
+  <si>
+    <t>② LinkedList 采用链表存储，所以插入，删除元素时间复杂度不受元素位置的影响，都是近似 O（1）而数组为近似 O（n）</t>
+  </si>
+  <si>
+    <t>是否支持快速随机访问</t>
+  </si>
+  <si>
+    <t>LinkedList 不支持高效的随机元素访问，而 ArrayList 支持。快速随机访问就是通过元素的序号快速获取元素对象(对应于get(int index)方法)。</t>
+  </si>
+  <si>
+    <t>内存空间占用</t>
+  </si>
+  <si>
+    <t>ArrayList的空 间浪费主要体现在在list列表的结尾会预留一定的容量空间，而LinkedList的空间花费则体现在它的每一个元素都需要消耗比ArrayList更多的空间（因为要存放直接后继和直接前驱以及数据）</t>
   </si>
   <si>
     <t>简介</t>
@@ -542,6 +681,359 @@
   </si>
   <si>
     <t>7、LinkedList基于双向链表实现，元素都可以为null。</t>
+  </si>
+  <si>
+    <t>基本使用</t>
+  </si>
+  <si>
+    <t>HashMap很方便地为我们提供了key-value的形式存取数据，使用put方法存数据，get方法取数据。</t>
+  </si>
+  <si>
+    <t>定义</t>
+  </si>
+  <si>
+    <t>HashMap继承了Map接口，实现了Serializable等接口。</t>
+  </si>
+  <si>
+    <t>transient：transient型变量的值不包括在序列化的表示中</t>
+  </si>
+  <si>
+    <t>HashMap的数据是存在table数组中的，它是一个Entry数组，Entry是HashMap的一个静态内部类，看看它的定义。</t>
+  </si>
+  <si>
+    <t>Entry其实就是封装了key和value，也就是我们put方法参数的key和value会被封装成Entry，然后放到table这个Entry数组中</t>
+  </si>
+  <si>
+    <t>但值得注意的是，它有一个类型为Entry的next，它是用于指向下一个Entry的引用，所以table中存储的是Entry的单向链表。</t>
+  </si>
+  <si>
+    <t>构造方法</t>
+  </si>
+  <si>
+    <t>initialCapacity是HashMap的初始化容量(即初始化table时用到)，默认为16。</t>
+  </si>
+  <si>
+    <t>loadFactor为负载因子，默认为0.75。</t>
+  </si>
+  <si>
+    <t>threshold是HashMap进行扩容的阀值，当HashMap的存放的元素个数超过该值时，会进行扩容，它的值为HashMap的容量乘以负载因子。比如，HashMap的默认阀值为16*0.75，即12</t>
+  </si>
+  <si>
+    <t>PUT方法</t>
+  </si>
+  <si>
+    <t>对key为null的处理</t>
+  </si>
+  <si>
+    <t>根据key算出hash值</t>
+  </si>
+  <si>
+    <t>根据hash值和HashMap容量算出在table中应该存储的下标i</t>
+  </si>
+  <si>
+    <t>调用indexFor方法，去算出当前值在table数组的下标</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>static</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF61AEEE"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>indexFor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> h, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> length) { </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFC678DD"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> h &amp; (length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFD19A66"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFABB2BF"/>
+        <rFont val="Courier New"/>
+        <charset val="134"/>
+      </rPr>
+      <t>); }</t>
+    </r>
+  </si>
+  <si>
+    <t>这其实就是mod取余的一种替换方式</t>
+  </si>
+  <si>
+    <t>我们已经根据key得到hash值，然后根据hash值算出在table的存储下标了，接着就是这段for代码了</t>
+  </si>
+  <si>
+    <t>先判断hash值是否一样，如果一样，再判断key是否一样</t>
+  </si>
+  <si>
+    <t>首先取出table中下标为i的Entry，然后判断该Entry的hash值和key是否和要存储的hash值和key相同，如果相同，则表示要存储的key已经存在于HashMap，这时候只需要替换已存的Entry的value值即可。</t>
+  </si>
+  <si>
+    <t>如果不相同，则取e.next继续判断，其实就是遍历table中下标为i的Entry单向链表，找是否有相同的key已经在HashMap中，如果有，就替换value为最新的值，所以HashMap中只能存储唯一的key</t>
+  </si>
+  <si>
+    <t>如果当前HashMap中存储的元素个数达到扩容的阀值</t>
+  </si>
+  <si>
+    <t>扩容就通过内部的resize方法是先创建一个长度为原来2倍的新table，</t>
+  </si>
+  <si>
+    <t>然后通过遍历的方式，将老table的数据，重新计算hash并存储到新table的适当位置，</t>
+  </si>
+  <si>
+    <t>最后使用新的table，并重新计算HashMap的扩容阀值</t>
+  </si>
+  <si>
+    <t>get方法</t>
+  </si>
+  <si>
+    <t>remove方法</t>
+  </si>
+  <si>
+    <t>算出hash</t>
+  </si>
+  <si>
+    <t>得到在table中的index</t>
+  </si>
+  <si>
+    <t>当前结点的上一个结点，初始为table[index]上单向链表的头结点</t>
+  </si>
+  <si>
+    <t>循环链表</t>
+  </si>
+  <si>
+    <t>得到下一个结点</t>
+  </si>
+  <si>
+    <t>如果找到了删除的结点</t>
+  </si>
+  <si>
+    <t>如果是table上的单向链表的头结点，则直接让把该结点的next结点放到头结点</t>
+  </si>
+  <si>
+    <t>如果不是单向链表的头结点，则把上一个结点的next指向本结点的next</t>
+  </si>
+  <si>
+    <t>没有找到删除的结点，继续往下找</t>
+  </si>
+  <si>
+    <t>线程安全问题</t>
+  </si>
+  <si>
+    <t>1.在put的时候，因为该方法不是同步的，假如有两个线程A,B它们的put的key的hash值相同，不论是从头插入还是从尾插入，假如A获取了插入位置为x，但是还未插入，此时B也计算出待插入位置为x，则不论AB插入的先后顺序肯定有一个会丢失</t>
+  </si>
+  <si>
+    <t>2.在扩容的时候，jdk1.8之前是采用头插法，</t>
+  </si>
+  <si>
+    <t>当两个线程同时检测到hashmap需要扩容，在进行同时扩容的时候有可能会造成链表的循环，</t>
+  </si>
+  <si>
+    <t>主要原因就是，采用头插法，新链表与旧链表的顺序是反的，</t>
+  </si>
+  <si>
+    <t>在1.8后采用尾插法就不会出现这种问题，同时1.8的链表长度如果大于8就会转变成红黑树。</t>
+  </si>
+  <si>
+    <t>HashMap是基于哈希表实现的，用Entry[]来存储数据，而Entry中封装了key、value、hash以及Entry类型的next</t>
+  </si>
+  <si>
+    <t>HashMap存储数据是无序的</t>
+  </si>
+  <si>
+    <t>hash冲突是通过拉链法解决的</t>
+  </si>
+  <si>
+    <t>HashMap的容量永远为2的幂次方，有利于哈希表的散列</t>
+  </si>
+  <si>
+    <t>HashMap不支持存储多个相同的key，且只保存一个key为null的值，多个会覆盖</t>
+  </si>
+  <si>
+    <t>put过程，是先通过key算出hash，然后用hash算出应该存储在table中的index，然后遍历table[index]，看是否有相同的key存在，存在，则更新value；不存在则插入到table[index]单向链表的表头，时间复杂度为O(n)</t>
+  </si>
+  <si>
+    <t>get过程，通过key算出hash，然后用hash算出应该存储在table中的index，然后遍历table[index]，然后比对key，找到相同的key，则取出其value，时间复杂度为O(n)</t>
+  </si>
+  <si>
+    <t>HashMap是线程不安全的，如果有线程安全需求，推荐使用ConcurrentHashMap</t>
+  </si>
+  <si>
+    <t>应用场景</t>
+  </si>
+  <si>
+    <t>HashMap是无序的，当我们希望有顺序地去存储key-value时，就需要使用LinkedHashMap了</t>
+  </si>
+  <si>
+    <t>简单使用</t>
+  </si>
+  <si>
+    <t>跟HashMap一样，它也是提供了key-value的存储方式，并提供了put和get方法来进行数据存取。</t>
+  </si>
+  <si>
+    <t>LinkedHashMap扩容时，数据的再散列和HashMap是不一样的</t>
+  </si>
+  <si>
+    <t>HashMap是先遍历旧table，再遍历旧table中每个元素的单向链表，取得Entry以后，重新计算hash值，然后存放到新table的对应位置。</t>
+  </si>
+  <si>
+    <t>LinkedHashMap是遍历的双向链表，取得每一个Entry，然后重新计算hash值，然后存放到新table的对应位置。</t>
+  </si>
+  <si>
+    <t>从遍历的效率来说，遍历双向链表的效率要高于遍历table，因为遍历双向链表是N次（N为元素个数）；而遍历table是N+table的空余个数（N为元素个数）</t>
+  </si>
+  <si>
+    <t>LinkedHashMap是继承于HashMap，是基于HashMap和双向链表来实现的</t>
+  </si>
+  <si>
+    <t>HashMap无序；LinkedHashMap有序，可分为插入顺序和访问顺序两种。如果是访问顺序，那put和get操作已存在的Entry时，都会把Entry移动到双向链表的表尾(其实是先删除再插入)</t>
+  </si>
+  <si>
+    <t>LinkedHashMap存取数据，还是跟HashMap一样使用的Entry[]的方式，双向链表只是为了保证顺序。</t>
+  </si>
+  <si>
+    <t>LinkedHashMap是线程不安全的</t>
+  </si>
+  <si>
+    <t>特点</t>
+  </si>
+  <si>
+    <t>首先，Hashtable底层是通过数组加链表实现的，这点和JDK1.8之前的HashMap差不多。</t>
+  </si>
+  <si>
+    <t>其次，Hashtable是不允许key或者value为null的。</t>
+  </si>
+  <si>
+    <t>并且，Hashtable的计算索引方法，默认容量大小，扩容方法都与HashMap不太一样。</t>
+  </si>
+  <si>
+    <t>其实我们可以看到，Hashtable之所以线程安全，大部分方法都是使用了synchronized关键字，虽然JDK优化了synchronized，但在方法上使用该关键字，无疑仍旧是效率低下的操作。就这方面来说，ConcurrentHashMap无疑比Hashtable好多了</t>
+  </si>
+  <si>
+    <t>红黑树的规则</t>
+  </si>
+  <si>
+    <t>每个节点都只能是红色或者黑色</t>
+  </si>
+  <si>
+    <t>根节点是黑色</t>
+  </si>
+  <si>
+    <t>每个叶节点（NIL节点，空节点）是黑色的。</t>
+  </si>
+  <si>
+    <t>如果一个结点是红的，则它两个子节点都是黑的。也就是说在一条路径上不能出现相邻的两个红色结点。</t>
+  </si>
+  <si>
+    <t>红黑二叉树而言它主要包括三大基本操作</t>
+  </si>
+  <si>
+    <t>左旋. 右旋. 着色</t>
   </si>
 </sst>
 </file>
@@ -549,33 +1041,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="39">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF393939"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9.75"/>
-      <color rgb="FF393939"/>
-      <name val="Verdana"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -602,22 +1075,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF393939"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF008000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,8 +1161,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,13 +1207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -676,6 +1215,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -684,30 +1239,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -731,19 +1262,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FFABB2BF"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF61AEEE"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FFD19A66"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -753,21 +1294,31 @@
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FFABB2BF"/>
-      <name val="Courier New"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FF61AEEE"/>
-      <name val="Courier New"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="9.75"/>
-      <color rgb="FFD19A66"/>
-      <name val="Courier New"/>
+      <color rgb="FFA31515"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.75"/>
+      <color rgb="FF008000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -779,7 +1330,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,7 +1396,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,7 +1450,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -827,139 +1504,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,20 +1533,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1011,6 +1559,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,17 +1613,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1075,175 +1626,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1934,15 +2503,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
+    <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -1951,268 +2520,858 @@
       </c>
     </row>
     <row r="2" spans="2:2">
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2">
+      <c r="B13" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="9"/>
+    </row>
+    <row r="34" ht="44.25" spans="2:2">
+      <c r="B34" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" ht="48" spans="2:2">
+      <c r="B36" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" ht="24.75" spans="2:2">
+      <c r="B38" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" ht="24" spans="2:2">
+      <c r="B41" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" ht="24" spans="2:2">
+      <c r="B43" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="9"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="9"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="9"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="9"/>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>1</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2">
+      <c r="B12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2">
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C253"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B245" sqref="B245"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
-        <v>2</v>
+      <c r="A7" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="6" t="s">
-        <v>8</v>
+      <c r="A50" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="51" spans="2:2">
       <c r="B51" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
     </row>
     <row r="52" spans="2:2">
       <c r="B52" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
     </row>
     <row r="87" spans="1:1">
-      <c r="A87" s="6" t="s">
-        <v>12</v>
+      <c r="A87" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="88" spans="2:2">
       <c r="B88" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="89" spans="2:2">
       <c r="B89" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
     </row>
     <row r="90" spans="2:2">
       <c r="B90" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
     </row>
     <row r="91" spans="2:2">
       <c r="B91" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
     </row>
     <row r="92" spans="3:3">
-      <c r="C92" s="7" t="s">
-        <v>17</v>
+      <c r="C92" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>18</v>
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="2:2">
       <c r="B94" t="s">
-        <v>19</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>20</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>21</v>
+        <v>124</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>22</v>
+        <v>125</v>
       </c>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="6" t="s">
-        <v>23</v>
+      <c r="A163" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="164" spans="2:2">
       <c r="B164" t="s">
-        <v>24</v>
+        <v>126</v>
       </c>
     </row>
     <row r="165" spans="2:2">
       <c r="B165" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="166" spans="2:2">
       <c r="B166" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="2:2">
       <c r="B167" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="169" spans="1:1">
-      <c r="A169" s="6" t="s">
-        <v>28</v>
+      <c r="A169" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="204" spans="1:1">
-      <c r="A204" s="6" t="s">
-        <v>29</v>
+      <c r="A204" s="2" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="205" spans="2:2">
       <c r="B205" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="206" spans="2:2">
       <c r="B206" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
     </row>
     <row r="207" spans="2:2">
       <c r="B207" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
     </row>
     <row r="208" spans="2:2">
       <c r="B208" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
     </row>
     <row r="209" spans="3:3">
       <c r="C209" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210" spans="3:3">
       <c r="C210" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="211" spans="3:3">
       <c r="C211" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="212" spans="3:3">
       <c r="C212" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
     </row>
     <row r="213" spans="3:3">
       <c r="C213" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
     </row>
     <row r="215" spans="1:1">
-      <c r="A215" s="6" t="s">
-        <v>39</v>
+      <c r="A215" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
     </row>
     <row r="218" spans="3:3">
       <c r="C218" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
     </row>
     <row r="219" spans="3:3">
       <c r="C219" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
     </row>
     <row r="220" spans="3:3">
       <c r="C220" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
     </row>
     <row r="245" spans="1:1">
-      <c r="A245" s="6" t="s">
-        <v>45</v>
+      <c r="A245" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="246" spans="2:2">
       <c r="B246" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
     </row>
     <row r="247" spans="2:2">
       <c r="B247" t="s">
-        <v>47</v>
+        <v>148</v>
       </c>
     </row>
     <row r="248" spans="2:2">
       <c r="B248" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
     </row>
     <row r="249" spans="2:2">
       <c r="B249" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
     </row>
     <row r="250" spans="2:2">
       <c r="B250" t="s">
-        <v>50</v>
+        <v>151</v>
       </c>
     </row>
     <row r="251" spans="2:2">
       <c r="B251" t="s">
-        <v>51</v>
+        <v>152</v>
       </c>
     </row>
     <row r="252" spans="2:2">
       <c r="B252" t="s">
-        <v>52</v>
+        <v>153</v>
       </c>
     </row>
     <row r="253" spans="2:2">
       <c r="B253" t="s">
-        <v>53</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +3382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B16"/>
@@ -2236,72 +3395,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>55</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>58</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>59</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>62</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>63</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>64</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>65</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -2311,7 +3470,49 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B8"/>
@@ -2324,37 +3525,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>66</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>68</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>69</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>70</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2362,305 +3563,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" ht="17.25" spans="2:2">
-      <c r="B2" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="3" ht="17.25" spans="2:2">
-      <c r="B3" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="4" ht="17.25" spans="2:2">
-      <c r="B4" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" ht="17.25" spans="2:2">
-      <c r="B5" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B33"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2">
-      <c r="B27" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2">
-      <c r="B29" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2">
-      <c r="B30" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2">
-      <c r="B32" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="7935" tabRatio="799"/>
+    <workbookView windowWidth="19935" windowHeight="8010" tabRatio="799" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ArrayList" sheetId="5" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="LinkedHashMap" sheetId="2" r:id="rId4"/>
     <sheet name="HashTable" sheetId="4" r:id="rId5"/>
     <sheet name="TreeMap" sheetId="3" r:id="rId6"/>
+    <sheet name="解决哈希冲突" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="202">
   <si>
     <t>clone()方法</t>
   </si>
@@ -40,6 +41,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t>private</t>
     </r>
     <r>
@@ -135,6 +142,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -160,6 +173,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t>        </t>
     </r>
     <r>
@@ -188,6 +207,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -219,16 +244,13 @@
   </si>
   <si>
     <r>
-      <t>如果</t>
-    </r>
-    <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>size+1 &gt; elementData.length</t>
+      <t>如果</t>
     </r>
     <r>
       <rPr>
@@ -237,7 +259,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>证明数组已经放满，则增加容量，调用</t>
+      <t>size+1 &gt; elementData.length</t>
     </r>
     <r>
       <rPr>
@@ -246,7 +268,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>grow()</t>
+      <t>证明数组已经放满，则增加容量，调用</t>
     </r>
     <r>
       <rPr>
@@ -255,11 +277,26 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
+      <t>grow()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>。</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t>private</t>
     </r>
     <r>
@@ -338,6 +375,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
       <t>    </t>
     </r>
     <r>
@@ -368,6 +411,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>如果</t>
     </r>
     <r>
@@ -683,6 +732,24 @@
     <t>7、LinkedList基于双向链表实现，元素都可以为null。</t>
   </si>
   <si>
+    <t>简单介绍</t>
+  </si>
+  <si>
+    <t>HashTable是key value的数组，继承的是map接口</t>
+  </si>
+  <si>
+    <t>HashTable数据保存在Table数组中，是一个Entry数组</t>
+  </si>
+  <si>
+    <t>Entry是HashMap的一个静态内部类</t>
+  </si>
+  <si>
+    <t>Entry封装了key和vlaue，在put的时候参数中的key，value会被封装成Entry添加到Entry数组中</t>
+  </si>
+  <si>
+    <t>在Entry中有个next，它的作用是指向下一个Entry的引用，所以数组中的Entry存的是单向链表</t>
+  </si>
+  <si>
     <t>基本使用</t>
   </si>
   <si>
@@ -871,10 +938,16 @@
     <t>先判断hash值是否一样，如果一样，再判断key是否一样</t>
   </si>
   <si>
-    <t>首先取出table中下标为i的Entry，然后判断该Entry的hash值和key是否和要存储的hash值和key相同，如果相同，则表示要存储的key已经存在于HashMap，这时候只需要替换已存的Entry的value值即可。</t>
-  </si>
-  <si>
-    <t>如果不相同，则取e.next继续判断，其实就是遍历table中下标为i的Entry单向链表，找是否有相同的key已经在HashMap中，如果有，就替换value为最新的值，所以HashMap中只能存储唯一的key</t>
+    <t>首先取出table中下标为i的Entry，然后判断该Entry的hash值和key是否和要存储的hash值和key相同，</t>
+  </si>
+  <si>
+    <t>如果相同，则表示要存储的key已经存在于HashMap，这时候只需要替换已存的Entry的value值即可。</t>
+  </si>
+  <si>
+    <t>如果不相同，则取e.next继续判断，其实就是遍历table中下标为i的Entry单向链表，找是否有相同的key已经在HashMap中，</t>
+  </si>
+  <si>
+    <t>如果有，就替换value为最新的值，所以HashMap中只能存储唯一的key</t>
   </si>
   <si>
     <t>如果当前HashMap中存储的元素个数达到扩容的阀值</t>
@@ -925,7 +998,10 @@
     <t>线程安全问题</t>
   </si>
   <si>
-    <t>1.在put的时候，因为该方法不是同步的，假如有两个线程A,B它们的put的key的hash值相同，不论是从头插入还是从尾插入，假如A获取了插入位置为x，但是还未插入，此时B也计算出待插入位置为x，则不论AB插入的先后顺序肯定有一个会丢失</t>
+    <t>1.在put的时候，因为该方法不是同步的，假如有两个线程A,B它们的put的key的hash值相同，</t>
+  </si>
+  <si>
+    <t>不论是从头插入还是从尾插入，假如A获取了插入位置为x，但是还未插入，此时B也计算出待插入位置为x，则不论AB插入的先后顺序肯定有一个会丢失</t>
   </si>
   <si>
     <t>2.在扩容的时候，jdk1.8之前是采用头插法，</t>
@@ -1034,6 +1110,48 @@
   </si>
   <si>
     <t>左旋. 右旋. 着色</t>
+  </si>
+  <si>
+    <t>哈希冲突</t>
+  </si>
+  <si>
+    <t>再采用哈希函数对输入域进行映射到哈希表的时候</t>
+  </si>
+  <si>
+    <t>因为哈希表的位桶的数目远小于输入域的关键字的个数</t>
+  </si>
+  <si>
+    <t>所以，对于输入域的关键字来说，很可能会产生这样一种情况</t>
+  </si>
+  <si>
+    <t>也就是，一个关键字会映射到同一个位桶中的情况，这种情况就就叫做哈希冲突</t>
+  </si>
+  <si>
+    <t>哈希冲突简要说明</t>
+  </si>
+  <si>
+    <t>就是键(key)经过hash函数得到的结果作为地址去存放当前的键值对</t>
+  </si>
+  <si>
+    <t>但是却发现该地址已经有人先来了</t>
+  </si>
+  <si>
+    <t>一山不容二虎，就会产生冲突。这个冲突就是hash冲突了。</t>
+  </si>
+  <si>
+    <t>如果两个不同对象的hashCode相同，这种现象称为hash冲突。</t>
+  </si>
+  <si>
+    <t>解决hash冲突的办法</t>
+  </si>
+  <si>
+    <t>链地址法</t>
+  </si>
+  <si>
+    <t>将所有哈希地址相同的都链接在同一个链表中 ，因而查找、插入和删除主要在同义词链中进行。**链地址法适用于经常进行插入和删除的情况。</t>
+  </si>
+  <si>
+    <t>再hash法</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="39">
     <font>
@@ -1126,13 +1244,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1146,11 +1257,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1161,31 +1271,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1207,6 +1294,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1215,9 +1325,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1232,40 +1380,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1330,19 +1448,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,19 +1490,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,19 +1526,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,43 +1574,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,7 +1598,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1474,43 +1622,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1528,22 +1646,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1565,15 +1668,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1583,17 +1677,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1613,11 +1710,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1629,10 +1747,10 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1641,133 +1759,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1881,13 +1999,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1905,7 +2023,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="342900"/>
+          <a:off x="685800" y="1885950"/>
           <a:ext cx="4629150" cy="609600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1923,13 +2041,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1947,7 +2065,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="1371600"/>
+          <a:off x="685800" y="2914650"/>
           <a:ext cx="6000750" cy="1543050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1965,13 +2083,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>56</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1989,7 +2107,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="3600450"/>
+          <a:off x="685800" y="5143500"/>
           <a:ext cx="5895975" cy="4495800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2007,13 +2125,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>84</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2031,7 +2149,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="9601200"/>
+          <a:off x="685800" y="11144250"/>
           <a:ext cx="5991225" cy="4953000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2049,14 +2167,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>123</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2073,7 +2191,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="542925" y="16764000"/>
+          <a:off x="542925" y="18659475"/>
           <a:ext cx="5638800" cy="4400550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2091,13 +2209,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>125</xdr:row>
+      <xdr:row>135</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>159</xdr:row>
+      <xdr:row>169</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2115,7 +2233,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="21431250"/>
+          <a:off x="685800" y="23145750"/>
           <a:ext cx="5114925" cy="5934075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2133,13 +2251,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>172</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>201</xdr:row>
+      <xdr:row>211</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2157,7 +2275,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="29489400"/>
+          <a:off x="685800" y="31203900"/>
           <a:ext cx="5448300" cy="5048250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2175,13 +2293,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>220</xdr:row>
+      <xdr:row>231</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>239</xdr:row>
+      <xdr:row>250</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2199,7 +2317,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="37738050"/>
+          <a:off x="676275" y="39624000"/>
           <a:ext cx="6591300" cy="3362960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2505,7 +2623,7 @@
   <sheetPr/>
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
@@ -2647,7 +2765,7 @@
     <row r="33" spans="2:2">
       <c r="B33" s="9"/>
     </row>
-    <row r="34" ht="44.25" spans="2:2">
+    <row r="34" ht="15" spans="2:2">
       <c r="B34" s="11" t="s">
         <v>25</v>
       </c>
@@ -2657,12 +2775,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" ht="48" spans="2:2">
+    <row r="36" spans="2:2">
       <c r="B36" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" ht="24.75" spans="2:2">
+    <row r="38" spans="2:2">
       <c r="B38" s="7" t="s">
         <v>28</v>
       </c>
@@ -2672,12 +2790,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="41" ht="24" spans="2:2">
+    <row r="41" spans="2:2">
       <c r="B41" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="43" ht="24" spans="2:2">
+    <row r="43" spans="2:2">
       <c r="B43" s="7" t="s">
         <v>31</v>
       </c>
@@ -2953,7 +3071,7 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3093,10 +3211,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C253"/>
+  <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A250" workbookViewId="0">
+      <selection activeCell="G271" sqref="G271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3114,264 +3232,309 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2" t="s">
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="2" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
-      <c r="B52" t="s">
+    <row r="27" spans="2:2">
+      <c r="B27" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
-      <c r="B53" t="s">
+    <row r="28" spans="2:2">
+      <c r="B28" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="2" t="s">
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" t="s">
+    <row r="59" spans="1:1">
+      <c r="A59" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" t="s">
+    <row r="60" spans="2:2">
+      <c r="B60" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="92" spans="3:3">
-      <c r="C92" s="3" t="s">
+    <row r="62" spans="2:2">
+      <c r="B62" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="93" spans="3:3">
-      <c r="C93" t="s">
+    <row r="96" spans="1:1">
+      <c r="A96" s="2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" t="s">
+    <row r="97" spans="2:2">
+      <c r="B97" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="3:3">
-      <c r="C95" t="s">
+    <row r="98" spans="2:2">
+      <c r="B98" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="3:3">
-      <c r="C96" t="s">
+    <row r="99" spans="2:2">
+      <c r="B99" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="97" spans="3:3">
-      <c r="C97" t="s">
+    <row r="100" spans="2:2">
+      <c r="B100" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="2" t="s">
+    <row r="101" spans="3:3">
+      <c r="C101" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="102" spans="3:3">
+      <c r="C102" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="104" spans="3:3">
+      <c r="C104" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="105" spans="3:3">
+      <c r="C105" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="106" spans="3:3">
+      <c r="C106" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="107" spans="3:3">
+      <c r="C107" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="3:3">
+      <c r="C108" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2">
-      <c r="B165" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2">
-      <c r="B166" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2">
-      <c r="B167" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
-      <c r="A204" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="205" spans="2:2">
-      <c r="B205" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="206" spans="2:2">
-      <c r="B206" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="207" spans="2:2">
-      <c r="B207" t="s">
+    <row r="174" spans="2:2">
+      <c r="B174" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="208" spans="2:2">
-      <c r="B208" t="s">
+    <row r="175" spans="2:2">
+      <c r="B175" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="3:3">
-      <c r="C209" t="s">
+    <row r="176" spans="2:2">
+      <c r="B176" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="210" spans="3:3">
-      <c r="C210" t="s">
+    <row r="177" spans="2:2">
+      <c r="B177" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="211" spans="3:3">
-      <c r="C211" t="s">
+    <row r="179" spans="1:1">
+      <c r="A179" s="2" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="212" spans="3:3">
-      <c r="C212" t="s">
+    <row r="214" spans="1:1">
+      <c r="A214" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="213" spans="3:3">
-      <c r="C213" t="s">
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="218" spans="2:2">
+      <c r="B218" t="s">
         <v>143</v>
-      </c>
-    </row>
-    <row r="218" spans="3:3">
-      <c r="C218" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="219" spans="3:3">
       <c r="C219" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="220" spans="3:3">
       <c r="C220" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="221" spans="3:3">
+      <c r="C221" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="245" spans="1:1">
-      <c r="A245" s="2" t="s">
+    <row r="222" spans="3:3">
+      <c r="C222" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="223" spans="3:3">
+      <c r="C223" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1">
+      <c r="A225" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2">
+      <c r="B226" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3">
+      <c r="C227" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2">
+      <c r="B228" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3">
+      <c r="C229" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3">
+      <c r="C230" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3">
+      <c r="C231" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1">
+      <c r="A256" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="246" spans="2:2">
-      <c r="B246" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="247" spans="2:2">
-      <c r="B247" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="248" spans="2:2">
-      <c r="B248" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="249" spans="2:2">
-      <c r="B249" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="250" spans="2:2">
-      <c r="B250" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="251" spans="2:2">
-      <c r="B251" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="252" spans="2:2">
-      <c r="B252" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="253" spans="2:2">
-      <c r="B253" t="s">
-        <v>154</v>
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2">
+      <c r="B258" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="259" spans="2:2">
+      <c r="B259" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="260" spans="2:2">
+      <c r="B260" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
+      <c r="B263" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="264" spans="2:2">
+      <c r="B264" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -3395,22 +3558,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:1">
@@ -3420,22 +3583,22 @@
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:1">
@@ -3445,22 +3608,22 @@
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -3483,27 +3646,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -3525,37 +3688,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3563,4 +3726,91 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2">
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8010" tabRatio="799" activeTab="6"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="799"/>
   </bookViews>
   <sheets>
     <sheet name="ArrayList" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="204">
   <si>
     <t>clone()方法</t>
   </si>
@@ -1145,13 +1145,19 @@
     <t>解决hash冲突的办法</t>
   </si>
   <si>
-    <t>链地址法</t>
+    <t>开放地址法（线性探测再散列，二次探测再散列，伪随机探测再散列）</t>
+  </si>
+  <si>
+    <t>链地址法（Java hashmap就是这么做的）</t>
   </si>
   <si>
     <t>将所有哈希地址相同的都链接在同一个链表中 ，因而查找、插入和删除主要在同义词链中进行。**链地址法适用于经常进行插入和删除的情况。</t>
   </si>
   <si>
     <t>再hash法</t>
+  </si>
+  <si>
+    <t>就是算hashcode的方法不止一个，一个要是算出来重复啦，再用另一个算法去算。反正很多，直到不重复为止咯</t>
   </si>
 </sst>
 </file>
@@ -1159,12 +1165,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1236,6 +1242,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1243,6 +1255,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1251,28 +1309,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1286,17 +1346,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1310,13 +1369,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -1325,28 +1377,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1355,35 +1385,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1448,37 +1460,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,19 +1502,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1520,13 +1526,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1538,31 +1550,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1574,13 +1562,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,19 +1580,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1626,12 +1644,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1642,11 +1654,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1668,11 +1701,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1688,8 +1728,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1709,81 +1751,57 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1792,104 +1810,98 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1929,7 +1941,10 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2623,8 +2638,8 @@
   <sheetPr/>
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2791,7 +2806,7 @@
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="12" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2836,7 +2851,7 @@
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="12" t="s">
+      <c r="B56" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2901,32 +2916,32 @@
       </c>
     </row>
     <row r="74" spans="1:1">
-      <c r="A74" s="12" t="s">
+      <c r="A74" s="13" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="13" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="13" t="s">
+      <c r="B76" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="77" spans="2:2">
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="13" t="s">
+      <c r="B78" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="79" spans="2:2">
-      <c r="B79" s="13" t="s">
+      <c r="B79" s="14" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3071,7 +3086,7 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3213,8 +3228,8 @@
   <sheetPr/>
   <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A250" workbookViewId="0">
-      <selection activeCell="G271" sqref="G271"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3731,10 +3746,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3794,19 +3809,29 @@
         <v>198</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+    </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>201</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="799"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="799" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="ArrayList" sheetId="5" r:id="rId1"/>
@@ -1094,16 +1094,16 @@
     <t>红黑树的规则</t>
   </si>
   <si>
-    <t>每个节点都只能是红色或者黑色</t>
+    <t>节点是红色或黑色。</t>
   </si>
   <si>
     <t>根节点是黑色</t>
   </si>
   <si>
-    <t>每个叶节点（NIL节点，空节点）是黑色的。</t>
-  </si>
-  <si>
-    <t>如果一个结点是红的，则它两个子节点都是黑的。也就是说在一条路径上不能出现相邻的两个红色结点。</t>
+    <t>每个红色节点的两个子节点都是黑色，不能有两个连续的红色节点</t>
+  </si>
+  <si>
+    <t>从任一节点到其每个叶子的所有路径都包含相同数目的黑色节点。</t>
   </si>
   <si>
     <t>红黑二叉树而言它主要包括三大基本操作</t>
@@ -1165,10 +1165,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="40">
     <font>
@@ -1255,6 +1255,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1265,7 +1324,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1278,38 +1353,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1330,37 +1375,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -1371,31 +1385,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1460,31 +1460,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1502,7 +1490,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1514,19 +1598,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1544,25 +1616,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1574,73 +1640,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,31 +1654,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1708,46 +1722,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1756,148 +1756,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2638,8 +2638,8 @@
   <sheetPr/>
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3086,8 +3086,8 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3695,8 +3695,8 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>

--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -2638,8 +2638,8 @@
   <sheetPr/>
   <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3086,8 +3086,8 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3749,7 +3749,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="799" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="799" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ArrayList" sheetId="5" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="HashTable" sheetId="4" r:id="rId5"/>
     <sheet name="TreeMap" sheetId="3" r:id="rId6"/>
     <sheet name="解决哈希冲突" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
   <si>
     <t>clone()方法</t>
   </si>
@@ -463,7 +464,19 @@
     <t>将elementData拷贝到一个新的容量中。</t>
   </si>
   <si>
-    <t>ArrayList优缺点</t>
+    <r>
+      <t>ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>优缺点</t>
+    </r>
   </si>
   <si>
     <t>优点：</t>
@@ -529,13 +542,176 @@
     <t>总结</t>
   </si>
   <si>
-    <t>ArrayList底层采用数组实现，拥有快速随机访问能力，但是非线程安全的集合。</t>
-  </si>
-  <si>
-    <t>ArrayList默认容量为10，扩容规则为当要保存的新元素所需的容量不足时触发，基本规则为扩容1.5倍。</t>
-  </si>
-  <si>
-    <t>如果在遍历的时候发生结构性变化，会触发ConcurrentModificationException异常。</t>
+    <r>
+      <t>ArrayList底层采用数组实现</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，拥有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>快速随机访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能力，但是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>非线程安全的集合</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认容量为10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，扩容规则为当要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>保存的新元素所需的容量不足时触发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，基本规则为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扩容1.5倍</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>如果在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遍历的时候发生结构性变化</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，会触发</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ConcurrentModificationException异常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>结构性变化包括：添加新元素，删除元素。</t>
@@ -550,18 +726,294 @@
     <t>什么情况下你会使用ArrayList？什么时候你会选择LinkedList？</t>
   </si>
   <si>
-    <t>当你遇到访问元素比插入或者是删除元素更加频繁的时候，你应该使用ArrayList</t>
-  </si>
-  <si>
-    <t>当你在某个特别的索引中，插入或者是删除元素更加频繁，或者你压根就不需要访问元素的时候，你会选择LinkedList</t>
-  </si>
-  <si>
-    <t>这里的主要原因是，在ArrayList中访问元素的最糟糕的时间复杂度是”1″，而在LinkedList中可能就是”n”了。在ArrayList中增加或者删除某个元素，通常会调用System.arraycopy方法，这是一种极为消耗资源的操作，因此，在频繁的插入或者是删除元素的情况下，LinkedList的性能会更加好一点</t>
+    <r>
+      <t>当你遇到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>访问元素比插入或者是删除元素更加频繁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的时候，你应该使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ArrayList</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当你在某个特别的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>索引中，插入或者是删除元素更加频繁</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>者你压根就</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不需要访问元素的时候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，你会选择</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+  </si>
+  <si>
+    <t>这里的主要原因是，在ArrayList中访问元素的最糟糕的时间复杂度是”1″，而在LinkedList中可能就是”n”了。</t>
+  </si>
+  <si>
+    <r>
+      <t>在ArrayList中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>增加或者删除某个元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，通常会调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>System.arraycopy方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这是一种极为消耗资源的操作，因此，在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>频繁的插入或者是删除元素的情况下，LinkedList的性能会更加好一点</t>
+    </r>
   </si>
   <si>
     <t>当传递ArrayList到某个方法中，或者某个方法返回ArrayList，什么时候要考虑安全隐患？如何修复安全违规这个问题呢？</t>
   </si>
   <si>
+    <r>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>当做参数传递</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>到某个方法中，如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>array在没有被复制</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的情况下直接被分配给了成员变量，那么就可能发生这种情况</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>原始的数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被调用的方法改变的时候，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>传递到这个方法中的数组也会改变</t>
+    </r>
+  </si>
+  <si>
+    <t>修复如下：</t>
+  </si>
+  <si>
     <t>使用clone()方法，比如ArrayList newArray = oldArray.clone();</t>
   </si>
   <si>
@@ -574,13 +1026,248 @@
     <t>在索引中ArrayList的增加或者删除某个对象的运行过程？效率很低吗？解释一下为什么？</t>
   </si>
   <si>
-    <t>在ArrayList中增加或者是删除元素，要调用System.arraycopy这种效率很低的操作，如果遇到了需要频繁插入或者是删除的时候，你可以选择其他的Java集合，比如LinkedList。</t>
+    <r>
+      <t>在ArrayList中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>指定位置增加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>或者是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除元素</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>调用System.arraycopy</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>这种</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>效率很低</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的操作，如果遇到了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要频繁插入或者是删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的时候，你可以选择其他的Java集合，比如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>线程安全性</t>
   </si>
   <si>
-    <t>对ArrayList的操作一般分为两个步骤，改变位置(size)和操作元素(e)。所以这个过程在多线程的环境下是不能保证具有原子性的，因此ArrayList在多线程的环境下是线程不安全的。</t>
+    <r>
+      <t>对ArrayList的操作一般分为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两个步骤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>改变位置(size)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>操作元素(e)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。所以这个过程在多线程的环境下是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不能保证具有原子性的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因此ArrayList在多线程的环境下是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>线程不安全的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>序列化</t>
@@ -601,31 +1288,515 @@
     <t>插入和删除是否受元素位置的影响：</t>
   </si>
   <si>
-    <t>① ArrayList 采用数组存储，所以插入和删除元素的时间复杂度受元素位置的影响。</t>
-  </si>
-  <si>
-    <t>比如：执行add(E e)方法的时候， ArrayList 会默认在将指定的元素追加到此列表的末尾，这种情况时间复杂度就是O(1)。但是如果要在指定位置 i 插入和删除元素的话（add(int index, E element)）时间复杂度就为 O(n-i)。因为在进行上述操作的时候集合中第 i 和第 i 个元素之后的(n-i)个元素都要执行向后位/向前移一位的操作。</t>
-  </si>
-  <si>
-    <t>② LinkedList 采用链表存储，所以插入，删除元素时间复杂度不受元素位置的影响，都是近似 O（1）而数组为近似 O（n）</t>
+    <r>
+      <t xml:space="preserve">① </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ArrayList 采用数组存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>插入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元素的时间复杂度</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受元素位置的影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>比如：执行add(E e)方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的时候， ArrayList 会默认在将指定的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元素追加到此列表的末尾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，这种情况</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间复杂度就是O(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>但是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>如果要</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>在指定位置 i 插入和删除元素的话</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（add(int index, E element)）</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>时间复杂度就为 O(n-i)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。因为在进行上述操作的时候集合中</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>第 i 和第 i 个元素之后的(n-i)个元素都要执行向后位/向前移一位的操作。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">② LinkedList </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采用链表存储</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，所以</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>插入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元素时间复杂度不</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>受元素位置的影响</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，都是近似 O（1）而数组为近似 O（n）</t>
+    </r>
   </si>
   <si>
     <t>是否支持快速随机访问</t>
   </si>
   <si>
-    <t>LinkedList 不支持高效的随机元素访问，而 ArrayList 支持。快速随机访问就是通过元素的序号快速获取元素对象(对应于get(int index)方法)。</t>
+    <r>
+      <t>LinkedList 不支持</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>高效的随机元素访问</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，而 ArrayList 支持。快速随机访问就是通</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>过元素的序号快速获取元素对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(对应于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get(int index)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法)。</t>
+    </r>
   </si>
   <si>
     <t>内存空间占用</t>
   </si>
   <si>
-    <t>ArrayList的空 间浪费主要体现在在list列表的结尾会预留一定的容量空间，而LinkedList的空间花费则体现在它的每一个元素都需要消耗比ArrayList更多的空间（因为要存放直接后继和直接前驱以及数据）</t>
+    <r>
+      <t>ArrayList的空间浪费主要体现在在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>list列表的结尾会预留一定的容量空间</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LinkedList的空间花费则体现在它的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每一个元素都需要消耗比ArrayList更多的空间</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>（</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>因为要存放直接后继和直接前驱以及数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>）</t>
+    </r>
   </si>
   <si>
     <t>简介</t>
   </si>
   <si>
-    <t>LinkedList的底层是 Deque双向链表，实现了 Deque接口，而 Deque接口继承于 Queue接口，因此，在java中，如果要实现队列，一般都使用 LinkedList来实现。</t>
+    <r>
+      <t xml:space="preserve">LinkedList的底层是 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deque双向链表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，实现了</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Deque接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">，而 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Deque接口继承于 Queue接口</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因此，在java中，如果要实现队列，一般都使用 LinkedList来实现。</t>
+    </r>
   </si>
   <si>
     <t>Node结点</t>
@@ -638,22 +1809,284 @@
   </si>
   <si>
     <r>
-      <rPr>
+      <t>LInkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>添加操作时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个新添加的对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>都会被放到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>新建的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10"/>
         <color rgb="FF393939"/>
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>LInkedList</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF393939"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>添加操作时每个新添加的对象都会被放到新建的</t>
+      <t>Node</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对象中</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>Node对象中包含加入的对象和前后指针属性（pred和next，pred和next其实都是Node对象，直接存放的就是当前对象的前一个节点对象和后一个节点对象，最后一个及节点的next值为null），</t>
+  </si>
+  <si>
+    <r>
+      <t>然后将原来</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最后一个last节点的next指针指向新加入的对象</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即可</t>
+    </r>
+  </si>
+  <si>
+    <t>remove</t>
+  </si>
+  <si>
+    <r>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>删除操作</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是通过将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index位置上的前一个节点的next指向index位置的后一个节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>同时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>将后一个节点的pred指向前一个节点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>然后将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index位置上的Node节点对象属性都置空</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>来实现的，置空后的Node对象会</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>被GC垃圾回收期回收掉</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>获取index位置上的节点对象</t>
+  </si>
+  <si>
+    <t>将新插入的元素直接赋给此位置上节点对象的item属性即可</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <r>
+      <t>返回该</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>index位置上的节点对象的item属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，即该位置上的实际值</t>
+    </r>
+  </si>
+  <si>
+    <t>LinkedList和ArrayList的大致区别</t>
+  </si>
+  <si>
+    <t>1、ArrayList继承于 AbstractList， LinkedList继承于 AbstractSequentialList；</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
     </r>
     <r>
       <rPr>
@@ -662,92 +2095,717 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>Node</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF393939"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>对象中，</t>
-    </r>
-  </si>
-  <si>
-    <t>Node对象中包含加入的对象和前后指针属性（pred和next，pred和next其实都是Node对象，直接存放的就是当前对象的前一个节点对象和后一个节点对象，最后一个及节点的next值为null），</t>
-  </si>
-  <si>
-    <t>然后将原来最后一个last节点的next指针指向新加入的对象，即可</t>
-  </si>
-  <si>
-    <t>remove</t>
-  </si>
-  <si>
-    <t>LinkedList删除操作是通过将index位置上的前一个节点的next执行index位置的后一个节点，</t>
-  </si>
-  <si>
-    <t>同时将后一个节点的pred指向前一个节点，</t>
-  </si>
-  <si>
-    <t>然后将index位置上的Node节点对象属性都置空来实现的，置空后的Node对象会被GC垃圾回收期回收掉。</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>获取index位置上的节点对象</t>
-  </si>
-  <si>
-    <t>将新插入的元素直接赋给此位置上节点对象的item属性即可</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>返回该index位置上的节点对象的item属性，即该位置上的实际值</t>
-  </si>
-  <si>
-    <t>LinkedList和ArrayList的大致区别</t>
-  </si>
-  <si>
-    <t>1、ArrayList继承于 AbstractList， LinkedList继承于 AbstractSequentialList；</t>
-  </si>
-  <si>
-    <t>2、ArrayList基于数组， LinkedList基于双向链表，对于随机访问， ArrayList比较占优势，LinkedList插入、删除元素比较快，如果只要调整指针的指向那么时间复杂度是O(1),但是如果针对特定位置需要遍历时，时间复杂度是O(n)，也就是LinkedList在随机访问元素的话比较慢；</t>
-  </si>
-  <si>
-    <t>3、LinkedList没有实现自己的 Iterator，但是有 ListIterator和 DescendingIterator；</t>
-  </si>
-  <si>
-    <t>4、LinkedList需要更多的内存，因为 ArrayList的每个索引的位置是实际的数据，而 LinkedList中的每个节点中存储的是实际的数据和前后节点的位置；</t>
-  </si>
-  <si>
-    <t>5、ArrayList 和 LinkedList都是非同步的集合。</t>
-  </si>
-  <si>
-    <t>6、和ArrayList一样，LinkedList也是非线程安全的，只有在单线程下才可以使用。为了防止非同步访问，可以采用如下方式创建LinkedList：List list= Collections.synchronizedList(new LinkedList());</t>
-  </si>
-  <si>
-    <t>7、LinkedList基于双向链表实现，元素都可以为null。</t>
+      <t>ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t> LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双向链表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，对于</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>随机访问，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t> ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>比较占优势</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>插入、删除元素比较快</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，如果只要调整指针的指向那么时间复杂度是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O(1),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>但是如果针对特定位置需要遍历时，时间复杂度是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>O(n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，也就是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>在随机访问元素的话比较慢；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>没有实现自己的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t> Iterator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，但是有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t> ListIterator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t> DescendingIterator</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>需要更多的内存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，因为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t> ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的每个索引的位置是实际的数据</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，而</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>中的每个节点中存储的是实际的数据和前后节点的位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ArrayList </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t> LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>都是非同步的集合。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、和</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ArrayList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>一样，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>也是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>非线程安全的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，只有在单线程下才可以使用。为了防止非同步访问，可以采用如下方式创建</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">List list= </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Collections.synchronizedList(new LinkedList())</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>LinkedList</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>基于双向链表实现，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元素都可以为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>null</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>简单介绍</t>
   </si>
   <si>
-    <t>HashTable是key value的数组，继承的是map接口</t>
-  </si>
-  <si>
-    <t>HashTable数据保存在Table数组中，是一个Entry数组</t>
+    <r>
+      <t>HashMap是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>key value的数组</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>继承的是map接口</t>
+    </r>
+  </si>
+  <si>
+    <t>HashMap数据保存在Table数组中，是一个Entry数组</t>
   </si>
   <si>
     <t>Entry是HashMap的一个静态内部类</t>
   </si>
   <si>
-    <t>Entry封装了key和vlaue，在put的时候参数中的key，value会被封装成Entry添加到Entry数组中</t>
-  </si>
-  <si>
-    <t>在Entry中有个next，它的作用是指向下一个Entry的引用，所以数组中的Entry存的是单向链表</t>
+    <r>
+      <t>Entry封装了key和vlaue，在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>put的时候参数中的key，value会被封装成Entry添加到Entry数组中</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Entry中有个next</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，它的作用是指向下一个Entry的引用，所以数组中的Entry存的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是单向链表</t>
+    </r>
   </si>
   <si>
     <t>基本使用</t>
@@ -777,28 +2835,201 @@
     <t>构造方法</t>
   </si>
   <si>
-    <t>initialCapacity是HashMap的初始化容量(即初始化table时用到)，默认为16。</t>
-  </si>
-  <si>
-    <t>loadFactor为负载因子，默认为0.75。</t>
-  </si>
-  <si>
-    <t>threshold是HashMap进行扩容的阀值，当HashMap的存放的元素个数超过该值时，会进行扩容，它的值为HashMap的容量乘以负载因子。比如，HashMap的默认阀值为16*0.75，即12</t>
+    <r>
+      <t>initialCapacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是HashMap的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>初始化容量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(即初始化table时用到)，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认为16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>loadFactor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负载因子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>默认为0.75</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>threshold</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>是HashMap进行扩容的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阀值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，当HashMap的存放的元素个数超过该值时，会进行扩容，它的值为HashMap的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>容量乘以负载因子</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。比如，HashMap的默认阀值为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>16*0.75，即12</t>
+    </r>
   </si>
   <si>
     <t>PUT方法</t>
   </si>
   <si>
-    <t>对key为null的处理</t>
-  </si>
-  <si>
-    <t>根据key算出hash值</t>
-  </si>
-  <si>
-    <t>根据hash值和HashMap容量算出在table中应该存储的下标i</t>
-  </si>
-  <si>
-    <t>调用indexFor方法，去算出当前值在table数组的下标</t>
+    <t>1.对key为null的处理</t>
+  </si>
+  <si>
+    <t>2.根据key算出hash值</t>
+  </si>
+  <si>
+    <t>3.根据hash值和HashMap容量算出在table中应该存储的下标i</t>
+  </si>
+  <si>
+    <t>4.调用indexFor方法，去算出当前值在table数组的下标</t>
   </si>
   <si>
     <r>
@@ -932,7 +3163,7 @@
     <t>这其实就是mod取余的一种替换方式</t>
   </si>
   <si>
-    <t>我们已经根据key得到hash值，然后根据hash值算出在table的存储下标了，接着就是这段for代码了</t>
+    <t>5.我们已经根据key得到hash值，然后根据hash值算出在table的存储下标了，接着就是这段for代码了</t>
   </si>
   <si>
     <t>先判断hash值是否一样，如果一样，再判断key是否一样</t>
@@ -950,13 +3181,75 @@
     <t>如果有，就替换value为最新的值，所以HashMap中只能存储唯一的key</t>
   </si>
   <si>
-    <t>如果当前HashMap中存储的元素个数达到扩容的阀值</t>
-  </si>
-  <si>
-    <t>扩容就通过内部的resize方法是先创建一个长度为原来2倍的新table，</t>
-  </si>
-  <si>
-    <t>然后通过遍历的方式，将老table的数据，重新计算hash并存储到新table的适当位置，</t>
+    <t>简单来说就是HashMap是先遍历旧table，再遍历旧table中每个元素的单向链表，取得Entry以后，重新计算hash值，然后存放到新table的对应位置。</t>
+  </si>
+  <si>
+    <r>
+      <t>如果当前HashMap中存储的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>元素个数达到扩容的阀值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>扩容就通过内部的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>resize方法是先创建一个长度为原来2倍的新table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>然后通过遍历的方式，将</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>老table的数据，重新计算hash并存储到新table的适当位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
   </si>
   <si>
     <t>最后使用新的table，并重新计算HashMap的扩容阀值</t>
@@ -998,22 +3291,224 @@
     <t>线程安全问题</t>
   </si>
   <si>
-    <t>1.在put的时候，因为该方法不是同步的，假如有两个线程A,B它们的put的key的hash值相同，</t>
-  </si>
-  <si>
-    <t>不论是从头插入还是从尾插入，假如A获取了插入位置为x，但是还未插入，此时B也计算出待插入位置为x，则不论AB插入的先后顺序肯定有一个会丢失</t>
-  </si>
-  <si>
-    <t>2.在扩容的时候，jdk1.8之前是采用头插法，</t>
-  </si>
-  <si>
-    <t>当两个线程同时检测到hashmap需要扩容，在进行同时扩容的时候有可能会造成链表的循环，</t>
-  </si>
-  <si>
-    <t>主要原因就是，采用头插法，新链表与旧链表的顺序是反的，</t>
-  </si>
-  <si>
-    <t>在1.8后采用尾插法就不会出现这种问题，同时1.8的链表长度如果大于8就会转变成红黑树。</t>
+    <r>
+      <t>1.在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>put的时候</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因为该方法不是同步的，假如有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>两个线程A,B它们的put的key的hash值相同</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>不论是从头插入还是从尾插入，假如</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A获取了插入位置为x，但是还未插入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，此时</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B也计算出待插入位置为x</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，则</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>不论AB插入的先后顺序肯定有一个会丢失</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2.在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>扩容的时候，jdk1.8之前是采用头插法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>当两个线程同时检测到</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hashmap需要扩容，在进行同时扩容的时候有可能会造成链表的循环，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>主要原因就是，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>采用头插法，新链表与旧链表的顺序是反的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>在</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.8后采用尾插法就不会出现这种问题</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，同时1.8的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>链表长度如果大于8就会转变成红黑树</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>HashMap是基于哈希表实现的，用Entry[]来存储数据，而Entry中封装了key、value、hash以及Entry类型的next</t>
@@ -1022,7 +3517,20 @@
     <t>HashMap存储数据是无序的</t>
   </si>
   <si>
-    <t>hash冲突是通过拉链法解决的</t>
+    <r>
+      <t>hash冲突是通过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>拉链法解决的</t>
+    </r>
   </si>
   <si>
     <t>HashMap的容量永远为2的幂次方，有利于哈希表的散列</t>
@@ -1043,7 +3551,61 @@
     <t>应用场景</t>
   </si>
   <si>
-    <t>HashMap是无序的，当我们希望有顺序地去存储key-value时，就需要使用LinkedHashMap了</t>
+    <r>
+      <t>HashMap是无序的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，当我们希望有</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>顺序地去存储key-value时</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，就需要使</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>用LinkedHashMap</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>了</t>
+    </r>
   </si>
   <si>
     <t>简单使用</t>
@@ -1055,13 +3617,218 @@
     <t>LinkedHashMap扩容时，数据的再散列和HashMap是不一样的</t>
   </si>
   <si>
-    <t>HashMap是先遍历旧table，再遍历旧table中每个元素的单向链表，取得Entry以后，重新计算hash值，然后存放到新table的对应位置。</t>
-  </si>
-  <si>
-    <t>LinkedHashMap是遍历的双向链表，取得每一个Entry，然后重新计算hash值，然后存放到新table的对应位置。</t>
-  </si>
-  <si>
-    <t>从遍历的效率来说，遍历双向链表的效率要高于遍历table，因为遍历双向链表是N次（N为元素个数）；而遍历table是N+table的空余个数（N为元素个数）</t>
+    <r>
+      <t>HashMap是先遍历旧table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>再遍历旧table中每个元素的单向链表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取得Entry以后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重新计算hash值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>存放到新table的对应位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LinkedHashMap是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遍历的双向链表，取得每一个Entry</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，然后</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>重新计算hash值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>然后存放到新table的对应位置</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>从遍历的效率来说，遍历双向链表的效率要高于遍历table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，因为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>遍历双向链表是N次（N为元素个数）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>而遍历table是N+table的空余个数（N为元素个数）</t>
+    </r>
   </si>
   <si>
     <t>LinkedHashMap是继承于HashMap，是基于HashMap和双向链表来实现的</t>
@@ -1079,10 +3846,52 @@
     <t>特点</t>
   </si>
   <si>
-    <t>首先，Hashtable底层是通过数组加链表实现的，这点和JDK1.8之前的HashMap差不多。</t>
-  </si>
-  <si>
-    <t>其次，Hashtable是不允许key或者value为null的。</t>
+    <r>
+      <t>首先，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hashtable底层是通过数组加链表实现的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，这点和JDK1.8之前的HashMap差不多。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>其次，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Hashtable是不允许key或者value为null的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
   </si>
   <si>
     <t>并且，Hashtable的计算索引方法，默认容量大小，扩容方法都与HashMap不太一样。</t>
@@ -1165,12 +3974,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="45">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1199,13 +4008,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="9.75"/>
       <color rgb="FF393939"/>
       <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="10"/>
       <color rgb="FF393939"/>
       <name val="Verdana"/>
       <charset val="134"/>
@@ -1255,39 +4064,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="10.5"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1300,9 +4081,53 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1322,22 +4147,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1346,25 +4155,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1383,9 +4178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1397,6 +4192,35 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.5"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9.75"/>
@@ -1420,6 +4244,20 @@
       <sz val="10"/>
       <color rgb="FF393939"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF393939"/>
+      <name val="Verdana"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1450,6 +4288,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1460,7 +4305,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1472,127 +4473,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1604,43 +4485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1654,22 +4499,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1678,22 +4518,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1717,22 +4542,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1751,157 +4570,183 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,6 +4756,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1920,9 +4771,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1944,7 +4801,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2266,13 +5132,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>182</xdr:row>
+      <xdr:row>183</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>211</xdr:row>
+      <xdr:row>212</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2290,7 +5156,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="31203900"/>
+          <a:off x="685800" y="31375350"/>
           <a:ext cx="5448300" cy="5048250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2308,13 +5174,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>231</xdr:row>
+      <xdr:row>232</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>250</xdr:row>
+      <xdr:row>251</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2332,8 +5198,55 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="39624000"/>
+          <a:off x="676275" y="39795450"/>
           <a:ext cx="6591300" cy="3362960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>39370</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>144145</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3209925" y="1582420"/>
+          <a:ext cx="6400800" cy="3533775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2636,443 +5549,448 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="6"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="8" t="s">
+    <row r="8" ht="15" spans="2:2">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="9" t="s">
+    <row r="9" ht="15" spans="2:2">
+      <c r="B9" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" s="9" t="s">
+    <row r="10" ht="15" spans="2:2">
+      <c r="B10" s="13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="9" t="s">
+    <row r="11" ht="15" spans="2:2">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
-      <c r="B12" s="9" t="s">
+    <row r="12" ht="15" spans="2:2">
+      <c r="B12" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="9" t="s">
+    <row r="13" ht="15" spans="2:2">
+      <c r="B13" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="8" t="s">
+    <row r="16" ht="15" spans="2:2">
+      <c r="B16" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="9" t="s">
+    <row r="17" ht="15" spans="2:2">
+      <c r="B17" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="9" t="s">
+    <row r="19" ht="15" spans="2:2">
+      <c r="B19" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="10" t="s">
+    <row r="20" ht="15" spans="2:2">
+      <c r="B20" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="10" t="s">
+    <row r="21" ht="15" spans="2:2">
+      <c r="B21" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="10" t="s">
+    <row r="22" ht="15" spans="2:2">
+      <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
-      <c r="B33" s="9"/>
+    <row r="33" ht="15" spans="2:2">
+      <c r="B33" s="13"/>
     </row>
     <row r="34" ht="15" spans="2:2">
-      <c r="B34" s="11" t="s">
+      <c r="B34" s="15" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="16" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="2:2">
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" s="9"/>
+    <row r="45" spans="1:1">
+      <c r="A45" s="10" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="2:2">
-      <c r="B47" s="9"/>
+      <c r="B46" s="17" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="9"/>
+      <c r="B48" s="9" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="9"/>
+      <c r="B49" s="9" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="9"/>
-    </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="9"/>
+      <c r="B50" s="9" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="9"/>
+      <c r="B52" s="9" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="9"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="6" t="s">
-        <v>32</v>
+      <c r="B53" s="9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="9" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="13" t="s">
-        <v>33</v>
+      <c r="B56" s="9" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="6" t="s">
-        <v>34</v>
+      <c r="B58" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="6" t="s">
-        <v>35</v>
+      <c r="B59" s="9" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="6" t="s">
-        <v>36</v>
+      <c r="B60" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="63" spans="2:2">
-      <c r="B63" s="6" t="s">
-        <v>38</v>
+      <c r="B62" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="6" t="s">
-        <v>39</v>
+      <c r="B65" s="18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="6" t="s">
-        <v>40</v>
+      <c r="B66" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="19" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="6" t="s">
-        <v>41</v>
+      <c r="B68" s="20" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="13" t="s">
-        <v>46</v>
+      <c r="B69" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="21" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="21" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="13" t="s">
-        <v>47</v>
+      <c r="B75" s="9" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="14" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="6" t="s">
-        <v>53</v>
+      <c r="B76" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="10"/>
+      <c r="B78" s="21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="10"/>
+      <c r="C79" s="21" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="10"/>
+      <c r="B80" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="6" t="s">
-        <v>58</v>
+      <c r="B83" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="10" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="6" t="s">
-        <v>61</v>
+      <c r="B89" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="9" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="6" t="s">
-        <v>65</v>
+      <c r="B93" s="9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="6" t="s">
-        <v>67</v>
+      <c r="B99" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="10"/>
+      <c r="C100" s="10" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="6" t="s">
-        <v>72</v>
+      <c r="B101" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="10" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="6" t="s">
-        <v>77</v>
+      <c r="B107" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="21" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3086,135 +6004,138 @@
   <sheetPr/>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>78</v>
+      <c r="A1" s="3" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>79</v>
+      <c r="B2" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>80</v>
+      <c r="A4" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>82</v>
+      <c r="A9" s="3" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>85</v>
+      <c r="B12" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>86</v>
+      <c r="A14" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" t="s">
-        <v>87</v>
+      <c r="B15" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" t="s">
-        <v>88</v>
+      <c r="B16" s="4" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>89</v>
+      <c r="B17" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>90</v>
+      <c r="A19" s="3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>93</v>
+      <c r="A23" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>94</v>
+      <c r="B24" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>95</v>
+      <c r="A26" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="5" t="s">
-        <v>96</v>
+      <c r="B27" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="5" t="s">
-        <v>97</v>
+      <c r="B28" s="7" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="5" t="s">
-        <v>98</v>
+      <c r="B29" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="5" t="s">
-        <v>99</v>
+      <c r="B30" s="7" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="5" t="s">
-        <v>100</v>
+      <c r="B31" s="7" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="5" t="s">
-        <v>101</v>
+      <c r="B32" s="7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="5" t="s">
-        <v>102</v>
+      <c r="B33" s="7" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -3226,330 +6147,335 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C264"/>
+  <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>103</v>
+      <c r="A1" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>104</v>
+      <c r="B2" s="4" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" t="s">
-        <v>107</v>
+      <c r="B5" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" t="s">
-        <v>108</v>
+      <c r="B6" s="4" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="2" t="s">
-        <v>109</v>
+      <c r="A10" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="2" t="s">
-        <v>111</v>
+      <c r="A16" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:2">
       <c r="B29" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="2" t="s">
-        <v>117</v>
+      <c r="A59" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" t="s">
-        <v>118</v>
+      <c r="B60" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" t="s">
-        <v>119</v>
+      <c r="B61" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" t="s">
-        <v>120</v>
+      <c r="B62" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="2" t="s">
-        <v>121</v>
+      <c r="A96" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="97" spans="2:2">
       <c r="B97" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="3" t="s">
-        <v>126</v>
+      <c r="C101" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="174" spans="2:2">
       <c r="B174" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" t="s">
-        <v>135</v>
+      <c r="B175" s="4" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" t="s">
-        <v>136</v>
+      <c r="B176" s="4" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
-      <c r="A179" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
-      <c r="A214" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="215" spans="2:2">
-      <c r="B215" t="s">
-        <v>140</v>
+      <c r="B177" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1">
+      <c r="A215" s="3" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="216" spans="2:2">
       <c r="B216" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
     </row>
     <row r="217" spans="2:2">
       <c r="B217" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="218" spans="2:2">
       <c r="B218" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="219" spans="3:3">
-      <c r="C219" t="s">
-        <v>144</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="220" spans="3:3">
       <c r="C220" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
     </row>
     <row r="221" spans="3:3">
       <c r="C221" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="222" spans="3:3">
       <c r="C222" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="223" spans="3:3">
       <c r="C223" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
-      <c r="A225" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="227" spans="3:3">
-      <c r="C227" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="228" spans="2:2">
-      <c r="B228" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="229" spans="3:3">
-      <c r="C229" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+    </row>
+    <row r="224" spans="3:3">
+      <c r="C224" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2">
+      <c r="B227" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3">
+      <c r="C228" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2">
+      <c r="B229" s="4" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="230" spans="3:3">
-      <c r="C230" t="s">
-        <v>154</v>
+      <c r="C230" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="231" spans="3:3">
-      <c r="C231" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
-      <c r="A256" s="2" t="s">
+      <c r="C231" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="232" spans="3:3">
+      <c r="C232" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" s="3" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="257" spans="2:2">
-      <c r="B257" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="260" spans="2:2">
-      <c r="B260" t="s">
-        <v>159</v>
+      <c r="B260" s="4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="264" spans="2:2">
       <c r="B264" t="s">
-        <v>163</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3566,79 +6492,82 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="9" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>164</v>
+      <c r="A1" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>165</v>
+      <c r="B2" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>166</v>
+      <c r="A3" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>169</v>
+      <c r="B8" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" t="s">
-        <v>170</v>
+      <c r="B9" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>171</v>
+      <c r="B10" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -3654,34 +6583,34 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3695,45 +6624,45 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -3748,94 +6677,111 @@
   <sheetPr/>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="799" activeTab="6"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="799"/>
   </bookViews>
   <sheets>
     <sheet name="ArrayList" sheetId="5" r:id="rId1"/>
@@ -5551,8 +5551,8 @@
   <sheetPr/>
   <dimension ref="A1:C108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -6005,7 +6005,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -6149,7 +6149,7 @@
   <sheetPr/>
   <dimension ref="A1:C265"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A166" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A169" workbookViewId="0">
       <selection activeCell="B175" sqref="B175"/>
     </sheetView>
   </sheetViews>
@@ -6677,8 +6677,8 @@
   <sheetPr/>
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17:M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -6775,7 +6775,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="799"/>
+    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="799" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ArrayList" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="220">
   <si>
     <t>clone()方法</t>
   </si>
@@ -245,6 +245,171 @@
   </si>
   <si>
     <r>
+      <t>容量判断：如果</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>size+1 &gt; elementData.length</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>证明数组已经放满，则增加容量，调用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
+      <t>grow()</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>private</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>void</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FFA31515"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ensureExplicitCapacity</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>int</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t> minCapacity) {</t>
+    </r>
+  </si>
+  <si>
+    <t>    modCount++;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="134"/>
+      </rPr>
+      <t>    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9.75"/>
+        <color rgb="FF008000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// overflow-conscious code</t>
+    </r>
+  </si>
+  <si>
+    <t>    if (minCapacity - elementData.length &gt; 0)</t>
+  </si>
+  <si>
+    <t>        grow(minCapacity);</t>
+  </si>
+  <si>
+    <t>增加容量：默认1.5倍扩容。</t>
+  </si>
+  <si>
+    <t>获取当前数组长度=&gt;oldCapacity</t>
+  </si>
+  <si>
+    <t>oldCapacity&gt;&gt;1 表示将oldCapacity右移一位(位运算)，相当于除2。再加上1，相当于新容量扩容1.5倍。</t>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="9.75"/>
         <color rgb="FF000000"/>
@@ -260,7 +425,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>size+1 &gt; elementData.length</t>
+      <t>newCapacity&lt;mincapacity`，则`newcapacity mincapacity="size+1=2" elementdata="1" newcapacity="1+1"""&gt;&amp;gt;1=1</t>
     </r>
     <r>
       <rPr>
@@ -269,7 +434,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>证明数组已经放满，则增加容量，调用</t>
+      <t>,</t>
     </r>
     <r>
       <rPr>
@@ -278,7 +443,7 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>grow()</t>
+      <t>1&amp;lt;2</t>
     </r>
     <r>
       <rPr>
@@ -287,184 +452,24 @@
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>private</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>void</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FFA31515"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ensureExplicitCapacity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>int</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t> minCapacity) {</t>
-    </r>
-  </si>
-  <si>
-    <t>    modCount++;</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial Unicode MS"/>
-        <charset val="134"/>
-      </rPr>
-      <t>    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF008000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>// overflow-conscious code</t>
-    </r>
-  </si>
-  <si>
-    <t>    if (minCapacity - elementData.length &gt; 0)</t>
-  </si>
-  <si>
-    <t>        grow(minCapacity);</t>
-  </si>
-  <si>
-    <t>增加容量：默认1.5倍扩容。</t>
-  </si>
-  <si>
-    <t>获取当前数组长度=&gt;oldCapacity</t>
-  </si>
-  <si>
-    <t>oldCapacity&gt;&gt;1 表示将oldCapacity右移一位(位运算)，相当于除2。再加上1，相当于新容量扩容1.5倍。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
+      <t>所以如果不处理该情况，扩容将不能正确完成。</t>
+    </r>
+  </si>
+  <si>
+    <t>如果新容量比最大值还要大，则将新容量赋值为VM要求最大值。</t>
+  </si>
+  <si>
+    <t>将elementData拷贝到一个新的容量中。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Verdana"/>
         <charset val="134"/>
       </rPr>
-      <t>如果</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>newCapacity&lt;mincapacity`，则`newcapacity mincapacity="size+1=2" elementdata="1" newcapacity="1+1"""&gt;&amp;gt;1=1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1&amp;lt;2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9.75"/>
-        <color rgb="FF000000"/>
-        <rFont val="Verdana"/>
-        <charset val="134"/>
-      </rPr>
-      <t>所以如果不处理该情况，扩容将不能正确完成。</t>
-    </r>
-  </si>
-  <si>
-    <t>如果新容量比最大值还要大，则将新容量赋值为VM要求最大值。</t>
-  </si>
-  <si>
-    <t>将elementData拷贝到一个新的容量中。</t>
-  </si>
-  <si>
-    <r>
       <t>ArrayList</t>
     </r>
     <r>
@@ -543,6 +548,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ArrayList底层采用数组实现</t>
     </r>
     <r>
@@ -600,6 +613,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ArrayList</t>
     </r>
     <r>
@@ -668,6 +688,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果在</t>
     </r>
     <r>
@@ -727,6 +754,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当你遇到</t>
     </r>
     <r>
@@ -764,6 +798,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当你在某个特别的</t>
     </r>
     <r>
@@ -846,6 +887,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在ArrayList中</t>
     </r>
     <r>
@@ -907,6 +955,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当</t>
     </r>
     <r>
@@ -975,6 +1030,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当</t>
     </r>
     <r>
@@ -1014,19 +1076,95 @@
     <t>修复如下：</t>
   </si>
   <si>
-    <t>使用clone()方法，比如ArrayList newArray = oldArray.clone();</t>
-  </si>
-  <si>
-    <t>使用ArrayList构造方法，比如：ArrayList myObject = new ArrayList(myTempObject);</t>
-  </si>
-  <si>
-    <t>使用Collection的copy方法。Collections.copy(aa,bb);</t>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clone()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>方法，比如ArrayList newArray = oldArray.clone();</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ArrayList构造方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，比如：ArrayList myObject = new ArrayList(myTempObject);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collection的copy方法</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。Collections.copy(aa,bb);</t>
+    </r>
   </si>
   <si>
     <t>在索引中ArrayList的增加或者删除某个对象的运行过程？效率很低吗？解释一下为什么？</t>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在ArrayList中</t>
     </r>
     <r>
@@ -1161,6 +1299,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>对ArrayList的操作一般分为</t>
     </r>
     <r>
@@ -1289,6 +1434,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">① </t>
     </r>
     <r>
@@ -1378,6 +1530,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>比如：执行add(E e)方法</t>
     </r>
     <r>
@@ -1435,6 +1595,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>但是</t>
     </r>
     <r>
@@ -1503,6 +1671,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">② LinkedList </t>
     </r>
     <r>
@@ -1595,6 +1770,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LinkedList 不支持</t>
     </r>
     <r>
@@ -1666,6 +1848,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>ArrayList的空间浪费主要体现在在</t>
     </r>
     <r>
@@ -1682,6 +1871,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LinkedList的空间花费则体现在它的</t>
     </r>
     <r>
@@ -1732,6 +1928,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">LinkedList的底层是 </t>
     </r>
     <r>
@@ -1884,6 +2087,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>然后将原来</t>
     </r>
     <r>
@@ -1913,6 +2123,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LinkedList</t>
     </r>
     <r>
@@ -1960,6 +2177,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>同时</t>
     </r>
     <r>
@@ -1986,6 +2210,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>然后将</t>
     </r>
     <r>
@@ -2045,6 +2276,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>返回该</t>
     </r>
     <r>
@@ -2077,6 +2315,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>2</t>
     </r>
     <r>
@@ -2287,6 +2531,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>3</t>
     </r>
     <r>
@@ -2373,6 +2623,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>4</t>
     </r>
     <r>
@@ -2483,6 +2739,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>5</t>
     </r>
     <r>
@@ -2533,6 +2795,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>6</t>
     </r>
     <r>
@@ -2648,6 +2916,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF393939"/>
+        <rFont val="Verdana"/>
+        <charset val="134"/>
+      </rPr>
       <t>7</t>
     </r>
     <r>
@@ -2713,6 +2987,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>HashMap是</t>
     </r>
     <r>
@@ -2756,6 +3037,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Entry封装了key和vlaue，在</t>
     </r>
     <r>
@@ -2772,6 +3060,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -2893,6 +3188,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>loadFactor</t>
     </r>
     <r>
@@ -3181,7 +3484,60 @@
     <t>如果有，就替换value为最新的值，所以HashMap中只能存储唯一的key</t>
   </si>
   <si>
-    <t>简单来说就是HashMap是先遍历旧table，再遍历旧table中每个元素的单向链表，取得Entry以后，重新计算hash值，然后存放到新table的对应位置。</t>
+    <r>
+      <t>简单来说就是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HashMap是先遍历旧table</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>取得Entry以后</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+  </si>
+  <si>
+    <t>再遍历旧table中每个元素的单向链表，</t>
+  </si>
+  <si>
+    <t>重新计算hash值，</t>
+  </si>
+  <si>
+    <t>然后存放到新table的对应位置。</t>
   </si>
   <si>
     <r>
@@ -3196,11 +3552,18 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>元素个数达到扩容的阀值</t>
-    </r>
-  </si>
-  <si>
-    <r>
+      <t>元素个数达到扩容的阀值（阈值=hashmap初始容量默认16*负载因子0.75=16*0.75=12）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>扩容就通过内部的</t>
     </r>
     <r>
@@ -3227,6 +3590,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>然后通过遍历的方式，将</t>
     </r>
     <r>
@@ -3292,6 +3662,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1.在</t>
     </r>
     <r>
@@ -3339,6 +3716,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>不论是从头插入还是从尾插入，假如</t>
     </r>
     <r>
@@ -3397,6 +3781,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>2.在</t>
     </r>
     <r>
@@ -3423,6 +3814,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>当两个线程同时检测到</t>
     </r>
     <r>
@@ -3439,6 +3837,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>主要原因就是，</t>
     </r>
     <r>
@@ -3465,6 +3870,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在</t>
     </r>
     <r>
@@ -3511,6 +3923,24 @@
     </r>
   </si>
   <si>
+    <t>HashMap在put的时候</t>
+  </si>
+  <si>
+    <t>插入的元素超过了容量（由负载因子决定）的范围就会触发扩容操作</t>
+  </si>
+  <si>
+    <t>这个会重新将原数组的内容重新hash到新的扩容数组中</t>
+  </si>
+  <si>
+    <t>在多线程的环境下，存在同时其他的元素也在进行put操作</t>
+  </si>
+  <si>
+    <t>如果hash值相同，可能出现同时在同一数组下用链表表示，造成闭环</t>
+  </si>
+  <si>
+    <t>导致在get时会出现死循环，所以HashMap是线程不安全的。</t>
+  </si>
+  <si>
     <t>HashMap是基于哈希表实现的，用Entry[]来存储数据，而Entry中封装了key、value、hash以及Entry类型的next</t>
   </si>
   <si>
@@ -3518,6 +3948,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>hash冲突是通过</t>
     </r>
     <r>
@@ -3552,6 +3989,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>HashMap是无序的</t>
     </r>
     <r>
@@ -3618,6 +4063,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>HashMap是先遍历旧table</t>
     </r>
     <r>
@@ -3717,6 +4170,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LinkedHashMap是</t>
     </r>
     <r>
@@ -3785,6 +4245,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>从遍历的效率来说，遍历双向链表的效率要高于遍历table</t>
     </r>
     <r>
@@ -3847,30 +4315,42 @@
   </si>
   <si>
     <r>
-      <t>首先，</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <rPr>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
-      <t>Hashtable底层是通过数组加链表实现的</t>
-    </r>
-    <r>
-      <rPr>
+      <t>首先，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="10.5"/>
         <color rgb="FF000000"/>
         <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
+      <t>Hashtable底层是通过数组加链表实现的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>，这点和JDK1.8之前的HashMap差不多。</t>
     </r>
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Microsoft YaHei"/>
+        <charset val="134"/>
+      </rPr>
       <t>其次，</t>
     </r>
     <r>
@@ -3974,12 +4454,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="45">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4038,6 +4518,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.75"/>
+      <color rgb="FF008000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF008000"/>
       <name val="Arial Unicode MS"/>
@@ -4073,7 +4567,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4081,24 +4590,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4111,21 +4642,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4147,47 +4664,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4196,9 +4682,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4210,7 +4696,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4282,6 +4776,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="9.75"/>
       <color rgb="FF008000"/>
       <name val="宋体"/>
@@ -4305,13 +4806,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4329,7 +4866,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4341,13 +4932,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4359,7 +4956,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4371,121 +4986,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4499,16 +5000,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4538,24 +5039,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4571,21 +5054,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4596,164 +5064,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -4777,9 +5275,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4795,6 +5290,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -4804,10 +5302,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -5132,13 +5636,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>183</xdr:row>
+      <xdr:row>187</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5156,7 +5660,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="31375350"/>
+          <a:off x="685800" y="32061150"/>
           <a:ext cx="5448300" cy="5048250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5174,13 +5678,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>232</xdr:row>
+      <xdr:row>236</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>251</xdr:row>
+      <xdr:row>255</xdr:row>
       <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5198,7 +5702,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="676275" y="39795450"/>
+          <a:off x="676275" y="40481250"/>
           <a:ext cx="6591300" cy="3362960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5549,447 +6053,450 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" ht="15" spans="2:2">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" ht="15" spans="2:2">
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" ht="15" spans="2:2">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" ht="15" spans="2:2">
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" ht="15" spans="2:2">
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" ht="15" spans="2:2">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="2:2">
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" ht="15" spans="2:2">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" ht="15" spans="2:2">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="15" spans="2:2">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="2:2">
-      <c r="B20" s="14" t="s">
+    <row r="20" ht="15" spans="2:5">
+      <c r="B20" s="13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" ht="15" spans="2:2">
-      <c r="B21" s="14" t="s">
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+    </row>
+    <row r="21" ht="15" spans="2:5">
+      <c r="B21" s="13" t="s">
         <v>18</v>
       </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
     </row>
     <row r="22" ht="15" spans="2:2">
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="2:2">
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="9" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="33" ht="15" spans="2:2">
-      <c r="B33" s="13"/>
+      <c r="B33" s="11"/>
     </row>
     <row r="34" ht="15" spans="2:2">
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="16" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="9" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="9" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="9" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="11" t="s">
+      <c r="B43" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="17" t="s">
+      <c r="B46" s="18" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="8" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="49" spans="2:2">
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="50" spans="2:2">
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="8" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="52" spans="2:2">
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="53" spans="2:2">
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="2:2">
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="56" spans="2:2">
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="58" spans="2:2">
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="59" spans="2:2">
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="8" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="8" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="8" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="20" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="20" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="21" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:1">
-      <c r="A71" s="10" t="s">
+      <c r="A71" s="7" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="72" spans="1:1">
-      <c r="A72" s="10" t="s">
+      <c r="A72" s="7" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="21" t="s">
+      <c r="B73" s="22" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="21" t="s">
+      <c r="B74" s="22" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="75" spans="2:2">
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="8" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="21" t="s">
+      <c r="B76" s="22" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:1">
-      <c r="A77" s="10" t="s">
+      <c r="A77" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="10"/>
-      <c r="B78" s="21" t="s">
+    <row r="78" spans="2:2">
+      <c r="B78" s="22" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="10"/>
-      <c r="C79" s="21" t="s">
+    <row r="79" spans="3:3">
+      <c r="C79" s="22" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="10"/>
-      <c r="B80" s="9" t="s">
+    <row r="80" spans="2:2">
+      <c r="B80" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="22" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="22" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="22" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="85" spans="1:1">
-      <c r="A85" s="10" t="s">
+      <c r="A85" s="7" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="21" t="s">
+      <c r="B86" s="22" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="88" spans="1:1">
-      <c r="A88" s="10" t="s">
+      <c r="A88" s="7" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="21" t="s">
+      <c r="B89" s="22" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="91" spans="1:1">
-      <c r="A91" s="10" t="s">
+      <c r="A91" s="7" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="92" spans="2:2">
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="93" spans="2:2">
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="8" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="94" spans="2:2">
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="8" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="95" spans="2:2">
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="8" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="97" spans="1:1">
-      <c r="A97" s="10" t="s">
+      <c r="A97" s="7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="21" t="s">
+      <c r="B98" s="22" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="99" spans="2:2">
-      <c r="B99" s="10" t="s">
+      <c r="B99" s="7" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="100" spans="2:3">
-      <c r="B100" s="10"/>
-      <c r="C100" s="10" t="s">
+      <c r="B100" s="7"/>
+      <c r="C100" s="7" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="21" t="s">
+      <c r="B101" s="22" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="103" spans="1:1">
-      <c r="A103" s="10" t="s">
+      <c r="A103" s="7" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="21" t="s">
+      <c r="B104" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="106" spans="1:1">
-      <c r="A106" s="10" t="s">
+      <c r="A106" s="7" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="21" t="s">
+      <c r="B107" s="22" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="21" t="s">
+      <c r="B108" s="22" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6005,7 +6512,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -6014,17 +6521,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -6034,12 +6541,12 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>89</v>
       </c>
     </row>
@@ -6049,32 +6556,32 @@
       </c>
     </row>
     <row r="12" spans="2:2">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="2:2">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="16" spans="2:2">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6089,52 +6596,52 @@
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="2:2">
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="28" spans="2:2">
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="6" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="29" spans="2:2">
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="6" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="30" spans="2:2">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="6" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="31" spans="2:2">
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="2:2">
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="6" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="6" t="s">
         <v>108</v>
       </c>
     </row>
@@ -6147,24 +6654,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C265"/>
+  <dimension ref="A1:C275"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B175" sqref="B175"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A238" workbookViewId="0">
+      <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>110</v>
       </c>
     </row>
@@ -6179,17 +6686,17 @@
       </c>
     </row>
     <row r="5" spans="2:2">
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:2">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>115</v>
       </c>
     </row>
@@ -6199,7 +6706,7 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6229,27 +6736,27 @@
       </c>
     </row>
     <row r="59" spans="1:1">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="60" spans="2:2">
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="2" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="61" spans="2:2">
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="2" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="62" spans="2:2">
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="3" t="s">
+      <c r="A96" s="2" t="s">
         <v>127</v>
       </c>
     </row>
@@ -6274,7 +6781,7 @@
       </c>
     </row>
     <row r="101" spans="3:3">
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="4" t="s">
         <v>132</v>
       </c>
     </row>
@@ -6314,168 +6821,216 @@
       </c>
     </row>
     <row r="173" spans="1:1">
-      <c r="A173" s="3" t="s">
+      <c r="A173" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="174" spans="2:2">
-      <c r="B174" t="s">
+      <c r="B174" s="3" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="175" spans="2:2">
-      <c r="B175" s="4" t="s">
+      <c r="B175" s="3" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="176" spans="2:2">
-      <c r="B176" s="4" t="s">
+      <c r="B176" s="3" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="177" spans="2:2">
-      <c r="B177" s="4" t="s">
+      <c r="B177" s="3" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="178" spans="2:2">
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="3"/>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="180" spans="1:1">
-      <c r="A180" s="3" t="s">
+    <row r="180" spans="2:2">
+      <c r="B180" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="215" spans="1:1">
-      <c r="A215" s="3" t="s">
+    <row r="181" spans="2:2">
+      <c r="B181" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="216" spans="2:2">
-      <c r="B216" t="s">
+    <row r="182" spans="2:2">
+      <c r="B182" s="2" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="217" spans="2:2">
-      <c r="B217" t="s">
+    <row r="184" spans="1:1">
+      <c r="A184" s="2" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="218" spans="2:2">
-      <c r="B218" t="s">
+    <row r="219" spans="1:1">
+      <c r="A219" s="2" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="219" spans="2:2">
-      <c r="B219" t="s">
+    <row r="220" spans="2:2">
+      <c r="B220" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="220" spans="3:3">
-      <c r="C220" t="s">
+    <row r="221" spans="2:2">
+      <c r="B221" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="221" spans="3:3">
-      <c r="C221" t="s">
+    <row r="222" spans="2:2">
+      <c r="B222" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="222" spans="3:3">
-      <c r="C222" t="s">
+    <row r="223" spans="2:2">
+      <c r="B223" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="223" spans="3:3">
-      <c r="C223" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="224" spans="3:3">
       <c r="C224" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3">
+      <c r="C225" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="226" spans="1:1">
-      <c r="A226" s="3" t="s">
+    <row r="226" spans="3:3">
+      <c r="C226" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
-      <c r="B227" s="4" t="s">
+    <row r="227" spans="3:3">
+      <c r="C227" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="228" spans="3:3">
-      <c r="C228" s="4" t="s">
+      <c r="C228" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" s="4" t="s">
+    <row r="230" spans="1:1">
+      <c r="A230" s="2" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="230" spans="3:3">
-      <c r="C230" s="4" t="s">
+    <row r="231" spans="2:2">
+      <c r="B231" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="231" spans="3:3">
-      <c r="C231" s="4" t="s">
+    <row r="232" spans="3:3">
+      <c r="C232" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="232" spans="3:3">
-      <c r="C232" s="4" t="s">
+    <row r="233" spans="2:2">
+      <c r="B233" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="257" spans="1:1">
-      <c r="A257" s="3" t="s">
-        <v>46</v>
+    <row r="234" spans="3:3">
+      <c r="C234" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="235" spans="3:3">
+      <c r="C235" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="236" spans="3:3">
+      <c r="C236" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="258" spans="2:2">
       <c r="B258" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="259" spans="2:2">
       <c r="B259" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="260" spans="2:2">
-      <c r="B260" s="4" t="s">
-        <v>165</v>
+      <c r="B260" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="261" spans="2:2">
       <c r="B261" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="262" spans="2:2">
       <c r="B262" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="264" spans="2:2">
-      <c r="B264" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="265" spans="2:2">
-      <c r="B265" t="s">
-        <v>170</v>
+        <v>171</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="268" spans="2:2">
+      <c r="B268" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="269" spans="2:2">
+      <c r="B269" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="270" spans="2:2">
+      <c r="B270" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="271" spans="2:2">
+      <c r="B271" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="272" spans="2:2">
+      <c r="B272" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2">
+      <c r="B273" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2">
+      <c r="B274" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2">
+      <c r="B275" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6501,73 +7056,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="3" t="s">
-        <v>171</v>
+      <c r="A1" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="2:2">
-      <c r="B2" s="3" t="s">
-        <v>172</v>
+      <c r="B2" s="2" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
-        <v>173</v>
+      <c r="A3" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:2">
       <c r="B7" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="2:2">
-      <c r="B8" s="3" t="s">
-        <v>176</v>
+      <c r="B8" s="2" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="2:2">
-      <c r="B9" s="4" t="s">
-        <v>177</v>
+      <c r="B9" s="3" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="2:2">
-      <c r="B10" s="3" t="s">
-        <v>178</v>
+      <c r="B10" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="2:2">
       <c r="B14" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -6590,27 +7145,27 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" ht="17.25" spans="2:2">
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
     </row>
     <row r="3" ht="17.25" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -6632,37 +7187,37 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -6685,82 +7240,82 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12240" tabRatio="799" activeTab="2"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="799"/>
   </bookViews>
   <sheets>
     <sheet name="ArrayList" sheetId="5" r:id="rId1"/>
@@ -245,6 +245,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>容量判断：如果</t>
     </r>
     <r>
@@ -1077,6 +1084,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使用</t>
     </r>
     <r>
@@ -1103,6 +1117,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使用</t>
     </r>
     <r>
@@ -1129,6 +1150,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>使用</t>
     </r>
     <r>
@@ -2012,6 +2040,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>LInkedList</t>
     </r>
     <r>
@@ -3131,6 +3166,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>initialCapacity</t>
     </r>
     <r>
@@ -3253,6 +3296,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>threshold</t>
     </r>
     <r>
@@ -3485,6 +3536,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>简单来说就是</t>
     </r>
     <r>
@@ -3541,6 +3599,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>如果当前HashMap中存储的</t>
     </r>
     <r>
@@ -4455,9 +4520,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="48">
     <font>
@@ -4566,40 +4631,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4610,24 +4646,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4643,6 +4663,29 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4666,17 +4709,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4688,8 +4723,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4703,10 +4768,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4806,61 +4871,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4878,19 +4895,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4908,19 +4925,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4932,25 +5003,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4962,31 +5045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5000,26 +5065,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5035,21 +5100,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5083,8 +5133,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5092,8 +5157,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5102,152 +5167,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5289,9 +5354,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -6055,8 +6117,8 @@
   <sheetPr/>
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6095,32 +6157,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" ht="15" spans="2:2">
+    <row r="8" spans="2:2">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="15" spans="2:2">
+    <row r="9" spans="2:2">
       <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" ht="15" spans="2:2">
+    <row r="10" spans="2:2">
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" ht="15" spans="2:2">
+    <row r="11" spans="2:2">
       <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" ht="15" spans="2:2">
+    <row r="12" spans="2:2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" ht="15" spans="2:2">
+    <row r="13" spans="2:2">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -6135,39 +6197,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="2:2">
+    <row r="16" spans="2:2">
       <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="2:2">
+    <row r="17" spans="2:2">
       <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" ht="15" spans="2:2">
+    <row r="19" spans="2:2">
       <c r="B19" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" ht="15" spans="2:5">
+    <row r="20" spans="2:5">
       <c r="B20" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-    </row>
-    <row r="21" ht="15" spans="2:5">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="2:5">
       <c r="B21" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-    </row>
-    <row r="22" ht="15" spans="2:2">
-      <c r="B22" s="15" t="s">
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6201,11 +6263,11 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="2:2">
+    <row r="33" spans="2:2">
       <c r="B33" s="11"/>
     </row>
     <row r="34" ht="15" spans="2:2">
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -6230,7 +6292,7 @@
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>30</v>
       </c>
     </row>
@@ -6245,7 +6307,7 @@
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="17" t="s">
         <v>33</v>
       </c>
     </row>
@@ -6310,32 +6372,32 @@
       </c>
     </row>
     <row r="64" spans="1:1">
-      <c r="A64" s="19" t="s">
+      <c r="A64" s="18" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="65" spans="2:2">
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="18" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="66" spans="2:2">
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="19" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="19" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6350,12 +6412,12 @@
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="21" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="74" spans="2:2">
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="21" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6365,7 +6427,7 @@
       </c>
     </row>
     <row r="76" spans="2:2">
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="21" t="s">
         <v>57</v>
       </c>
     </row>
@@ -6375,12 +6437,12 @@
       </c>
     </row>
     <row r="78" spans="2:2">
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="21" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="79" spans="3:3">
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="21" t="s">
         <v>60</v>
       </c>
     </row>
@@ -6390,17 +6452,17 @@
       </c>
     </row>
     <row r="81" spans="2:2">
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="21" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="82" spans="2:2">
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="21" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="83" spans="2:2">
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="21" t="s">
         <v>64</v>
       </c>
     </row>
@@ -6410,7 +6472,7 @@
       </c>
     </row>
     <row r="86" spans="2:2">
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="21" t="s">
         <v>66</v>
       </c>
     </row>
@@ -6420,7 +6482,7 @@
       </c>
     </row>
     <row r="89" spans="2:2">
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="21" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6455,7 +6517,7 @@
       </c>
     </row>
     <row r="98" spans="2:2">
-      <c r="B98" s="22" t="s">
+      <c r="B98" s="21" t="s">
         <v>75</v>
       </c>
     </row>
@@ -6471,7 +6533,7 @@
       </c>
     </row>
     <row r="101" spans="2:2">
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="21" t="s">
         <v>78</v>
       </c>
     </row>
@@ -6481,7 +6543,7 @@
       </c>
     </row>
     <row r="104" spans="2:2">
-      <c r="B104" s="22" t="s">
+      <c r="B104" s="21" t="s">
         <v>80</v>
       </c>
     </row>
@@ -6491,12 +6553,12 @@
       </c>
     </row>
     <row r="107" spans="2:2">
-      <c r="B107" s="22" t="s">
+      <c r="B107" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="108" spans="2:2">
-      <c r="B108" s="22" t="s">
+      <c r="B108" s="21" t="s">
         <v>83</v>
       </c>
     </row>
@@ -6656,7 +6718,7 @@
   <sheetPr/>
   <dimension ref="A1:C275"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A238" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A238" workbookViewId="0">
       <selection activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>

--- a/集合/集合.xlsx
+++ b/集合/集合.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="799"/>
+    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="799"/>
   </bookViews>
   <sheets>
     <sheet name="ArrayList" sheetId="5" r:id="rId1"/>
@@ -4520,8 +4520,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="48">
@@ -4631,11 +4631,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4647,9 +4667,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4668,31 +4704,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4707,6 +4720,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -4715,31 +4735,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4753,25 +4759,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4871,7 +4871,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4883,7 +4901,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4895,19 +4943,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4919,13 +4973,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4937,31 +4991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4973,7 +5009,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4985,67 +5039,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5068,23 +5068,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5115,26 +5100,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5157,8 +5142,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5170,10 +5170,10 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5182,133 +5182,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6117,8 +6117,8 @@
   <sheetPr/>
   <dimension ref="A1:E108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="W64" sqref="W64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -6157,32 +6157,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" ht="15" spans="2:2">
       <c r="B8" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
+    <row r="9" ht="15" spans="2:2">
       <c r="B9" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
+    <row r="10" ht="15" spans="2:2">
       <c r="B10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
+    <row r="11" ht="15" spans="2:2">
       <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:2">
+    <row r="12" ht="15" spans="2:2">
       <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
+    <row r="13" ht="15" spans="2:2">
       <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
@@ -6197,22 +6197,22 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
+    <row r="16" ht="15" spans="2:2">
       <c r="B16" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" ht="15" spans="2:2">
       <c r="B17" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" ht="15" spans="2:2">
       <c r="B19" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:5">
+    <row r="20" ht="15" spans="2:5">
       <c r="B20" s="13" t="s">
         <v>17</v>
       </c>
@@ -6220,7 +6220,7 @@
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
     </row>
-    <row r="21" spans="2:5">
+    <row r="21" ht="15" spans="2:5">
       <c r="B21" s="13" t="s">
         <v>18</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" ht="15" spans="2:2">
       <c r="B22" s="14" t="s">
         <v>11</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="2:2">
+    <row r="33" ht="15" spans="2:2">
       <c r="B33" s="11"/>
     </row>
     <row r="34" ht="15" spans="2:2">
